--- a/examples/SBB/model_parsing_diagnostics.SBB.xlsx
+++ b/examples/SBB/model_parsing_diagnostics.SBB.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="515">
   <si>
     <t>label</t>
   </si>
@@ -749,54 +749,54 @@
     <t>parameter</t>
   </si>
   <si>
-    <t>jtype</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>POCID</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>MnO2ID</t>
+  </si>
+  <si>
+    <t>FeOOHID</t>
+  </si>
+  <si>
+    <t>FeSID</t>
+  </si>
+  <si>
+    <t>FeS2ID</t>
+  </si>
+  <si>
+    <t>CaCO3ID</t>
+  </si>
+  <si>
+    <t>MnCO3ID</t>
+  </si>
+  <si>
+    <t>FeCO3ID</t>
+  </si>
+  <si>
+    <t>AgeID</t>
+  </si>
+  <si>
+    <t>BSiID</t>
+  </si>
+  <si>
+    <t>SMoID</t>
   </si>
   <si>
     <t>TMnID</t>
   </si>
   <si>
-    <t>::StepRange{Int64, Int64}</t>
-  </si>
-  <si>
     <t>TFeID</t>
   </si>
   <si>
     <t>TNH4ID</t>
   </si>
   <si>
-    <t>POCID</t>
-  </si>
-  <si>
-    <t>MnO2ID</t>
-  </si>
-  <si>
-    <t>FeOOHID</t>
-  </si>
-  <si>
-    <t>FeSID</t>
-  </si>
-  <si>
-    <t>FeS2ID</t>
-  </si>
-  <si>
-    <t>CaCO3ID</t>
-  </si>
-  <si>
-    <t>MnCO3ID</t>
-  </si>
-  <si>
-    <t>FeCO3ID</t>
-  </si>
-  <si>
-    <t>AgeID</t>
-  </si>
-  <si>
-    <t>BSiID</t>
-  </si>
-  <si>
-    <t>SMoID</t>
-  </si>
-  <si>
     <t>O2ID</t>
   </si>
   <si>
@@ -815,15 +815,15 @@
     <t>MoID</t>
   </si>
   <si>
+    <t>TH3PO4ID</t>
+  </si>
+  <si>
+    <t>THSO4ID</t>
+  </si>
+  <si>
     <t>H4SiO4ID</t>
   </si>
   <si>
-    <t>TH3PO4ID</t>
-  </si>
-  <si>
-    <t>THSO4ID</t>
-  </si>
-  <si>
     <t>HID</t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>AmPOC</t>
   </si>
   <si>
-    <t>::Tridiagonal{T, Vector{T}}</t>
+    <t>transport matrix</t>
   </si>
   <si>
     <t>AmMnO2</t>
@@ -968,7 +968,7 @@
     <t>BcAmPOC</t>
   </si>
   <si>
-    <t>::Vector{T}</t>
+    <t>boundary condition</t>
   </si>
   <si>
     <t>BcCmPOC</t>
@@ -1079,9 +1079,6 @@
     <t>Ngrid</t>
   </si>
   <si>
-    <t>::Int64</t>
-  </si>
-  <si>
     <t>BcAmH3PO4</t>
   </si>
   <si>
@@ -1223,12 +1220,12 @@
     <t>alpha</t>
   </si>
   <si>
+    <t>bioirrigation</t>
+  </si>
+  <si>
     <t>O2BW</t>
   </si>
   <si>
-    <t>::T</t>
-  </si>
-  <si>
     <t>NO3BW</t>
   </si>
   <si>
@@ -1310,6 +1307,9 @@
     <t>KMn_ads</t>
   </si>
   <si>
+    <t>adsorption</t>
+  </si>
+  <si>
     <t>dstopw</t>
   </si>
   <si>
@@ -1322,6 +1322,9 @@
     <t>KH3PO4</t>
   </si>
   <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>KH2PO4</t>
   </si>
   <si>
@@ -1352,36 +1355,99 @@
     <t>Cl</t>
   </si>
   <si>
+    <t>speciation</t>
+  </si>
+  <si>
+    <t>Fe_free,FeCl_aq,FeSO4_aq,FeCO3_aq,Fe_CO3_OH_aq,FeHS_aq,FeS_aq</t>
+  </si>
+  <si>
+    <t>Mn,Mn_ads</t>
+  </si>
+  <si>
+    <t>Mn,Fe,NH4</t>
+  </si>
+  <si>
+    <t>Fe,Fe_ads</t>
+  </si>
+  <si>
+    <t>NH4,NH4_ads</t>
+  </si>
+  <si>
     <t>KspFeS</t>
   </si>
   <si>
+    <t>saturation</t>
+  </si>
+  <si>
+    <t>Omega_RFeS_dis,Omega_RFeS_pre</t>
+  </si>
+  <si>
     <t>KspCaCO3_dis</t>
   </si>
   <si>
+    <t>Omega_RCaCO3_dis</t>
+  </si>
+  <si>
     <t>KspCaCO3_pre</t>
   </si>
   <si>
+    <t>Omega_RCaCO3_pre</t>
+  </si>
+  <si>
     <t>KspMnCO3</t>
   </si>
   <si>
+    <t>Omega_RMnCO3_dis,Omega_RMnCO3_pre</t>
+  </si>
+  <si>
     <t>KspFeCO3</t>
   </si>
   <si>
+    <t>Omega_RFeCO3_dis,Omega_RFeCO3_pre</t>
+  </si>
+  <si>
     <t>H4SiO4_dis_sat</t>
   </si>
   <si>
+    <t>Omega_RBSi_dis</t>
+  </si>
+  <si>
     <t>H4SiO4_pre_sat</t>
   </si>
   <si>
+    <t>Omega_RASi_pre</t>
+  </si>
+  <si>
     <t>KspCFA</t>
   </si>
   <si>
+    <t>Omega_RCFA_pre</t>
+  </si>
+  <si>
+    <t>reaction rate</t>
+  </si>
+  <si>
+    <t>S_O2,S_TCO2,S_TNH4,S_TH3PO4,S_NO2,S_NO3,S_TMn,S_TFe,S_THSO4,S_TH2S,S_CH4,S_Ca,S_H4SiO4,S_TA,S_TA,S_TA,RCaCO3_pre,RMnCO3_pre,RFeCO3_pre</t>
+  </si>
+  <si>
+    <t>S_TNH4,S_TA</t>
+  </si>
+  <si>
+    <t>S_TH3PO4,S_TA</t>
+  </si>
+  <si>
     <t>pwtods</t>
   </si>
   <si>
+    <t>S_MnO2,S_FeOOH,S_FeS,S_CaCO3,S_MnCO3,S_FeCO3,S_SMo</t>
+  </si>
+  <si>
     <t>KO2</t>
   </si>
   <si>
+    <t>RO2POC,RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
     <t>nu</t>
   </si>
   <si>
@@ -1391,18 +1457,33 @@
     <t>KNO2</t>
   </si>
   <si>
+    <t>RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
     <t>KNO3</t>
   </si>
   <si>
+    <t>RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
     <t>KMnO2</t>
   </si>
   <si>
+    <t>RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
     <t>KFeOOH</t>
   </si>
   <si>
+    <t>RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
     <t>KTHSO4</t>
   </si>
   <si>
+    <t>RSO4POC,RCH4POC</t>
+  </si>
+  <si>
     <t>kO2NO2</t>
   </si>
   <si>
@@ -1494,90 +1575,6 @@
   </si>
   <si>
     <t>kCFA_pre</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>speciation</t>
-  </si>
-  <si>
-    <t>Fe_free,FeCl_aq,FeSO4_aq,FeCO3_aq,Fe_CO3_OH_aq,FeHS_aq,FeS_aq</t>
-  </si>
-  <si>
-    <t>adsorption</t>
-  </si>
-  <si>
-    <t>Mn,Mn_ads</t>
-  </si>
-  <si>
-    <t>Mn,Fe,NH4</t>
-  </si>
-  <si>
-    <t>Fe,Fe_ads</t>
-  </si>
-  <si>
-    <t>NH4,NH4_ads</t>
-  </si>
-  <si>
-    <t>saturation</t>
-  </si>
-  <si>
-    <t>Omega_RFeS_dis,Omega_RFeS_pre</t>
-  </si>
-  <si>
-    <t>Omega_RCaCO3_dis</t>
-  </si>
-  <si>
-    <t>Omega_RCaCO3_pre</t>
-  </si>
-  <si>
-    <t>Omega_RMnCO3_dis,Omega_RMnCO3_pre</t>
-  </si>
-  <si>
-    <t>Omega_RFeCO3_dis,Omega_RFeCO3_pre</t>
-  </si>
-  <si>
-    <t>Omega_RBSi_dis</t>
-  </si>
-  <si>
-    <t>Omega_RASi_pre</t>
-  </si>
-  <si>
-    <t>Omega_RCFA_pre</t>
-  </si>
-  <si>
-    <t>reaction rate</t>
-  </si>
-  <si>
-    <t>S_O2,S_TCO2,S_TNH4,S_TH3PO4,S_NO2,S_NO3,S_TMn,S_TFe,S_THSO4,S_TH2S,S_CH4,S_Ca,S_H4SiO4,S_TA,S_TA,S_TA,RCaCO3_pre,RMnCO3_pre,RFeCO3_pre</t>
-  </si>
-  <si>
-    <t>S_TNH4,S_TA</t>
-  </si>
-  <si>
-    <t>S_TH3PO4,S_TA</t>
-  </si>
-  <si>
-    <t>S_MnO2,S_FeOOH,S_FeS,S_CaCO3,S_MnCO3,S_FeCO3,S_SMo</t>
-  </si>
-  <si>
-    <t>RO2POC,RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>RSO4POC,RCH4POC</t>
   </si>
 </sst>
 </file>
@@ -2000,7 +1997,7 @@
         <v>19</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
@@ -2144,7 +2141,7 @@
         <v>36</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>36</v>
@@ -2180,7 +2177,7 @@
         <v>26</v>
       </c>
       <c r="J7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
@@ -2216,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
@@ -2360,7 +2357,7 @@
         <v>36</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
         <v>36</v>
@@ -2396,7 +2393,7 @@
         <v>26</v>
       </c>
       <c r="J13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -2432,7 +2429,7 @@
         <v>19</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>19</v>
@@ -2576,7 +2573,7 @@
         <v>36</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K18" t="s">
         <v>36</v>
@@ -2612,7 +2609,7 @@
         <v>26</v>
       </c>
       <c r="J19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
         <v>26</v>
@@ -2684,7 +2681,7 @@
         <v>19</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
         <v>19</v>
@@ -2720,7 +2717,7 @@
         <v>19</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K22" t="s">
         <v>19</v>
@@ -2828,7 +2825,7 @@
         <v>36</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K25" t="s">
         <v>36</v>
@@ -2864,7 +2861,7 @@
         <v>26</v>
       </c>
       <c r="J26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
         <v>26</v>
@@ -2900,7 +2897,7 @@
         <v>36</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K27" t="s">
         <v>36</v>
@@ -2936,7 +2933,7 @@
         <v>19</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K28" t="s">
         <v>19</v>
@@ -2972,7 +2969,7 @@
         <v>19</v>
       </c>
       <c r="J29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K29" t="s">
         <v>19</v>
@@ -3080,7 +3077,7 @@
         <v>36</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K32" t="s">
         <v>36</v>
@@ -3116,7 +3113,7 @@
         <v>26</v>
       </c>
       <c r="J33">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
         <v>26</v>
@@ -3152,7 +3149,7 @@
         <v>36</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K34" t="s">
         <v>36</v>
@@ -3188,7 +3185,7 @@
         <v>19</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K35" t="s">
         <v>19</v>
@@ -3224,7 +3221,7 @@
         <v>26</v>
       </c>
       <c r="J36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K36" t="s">
         <v>26</v>
@@ -3332,7 +3329,7 @@
         <v>36</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K39" t="s">
         <v>36</v>
@@ -3368,7 +3365,7 @@
         <v>26</v>
       </c>
       <c r="J40">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
         <v>26</v>
@@ -3440,7 +3437,7 @@
         <v>19</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
         <v>19</v>
@@ -3584,7 +3581,7 @@
         <v>36</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K46" t="s">
         <v>36</v>
@@ -3620,7 +3617,7 @@
         <v>26</v>
       </c>
       <c r="J47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
         <v>26</v>
@@ -3800,7 +3797,7 @@
         <v>36</v>
       </c>
       <c r="J52">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K52" t="s">
         <v>36</v>
@@ -3944,7 +3941,7 @@
         <v>36</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K56" t="s">
         <v>36</v>
@@ -3980,7 +3977,7 @@
         <v>19</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K57" t="s">
         <v>19</v>
@@ -4088,7 +4085,7 @@
         <v>36</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K60" t="s">
         <v>82</v>
@@ -4124,7 +4121,7 @@
         <v>19</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K61" t="s">
         <v>19</v>
@@ -4232,7 +4229,7 @@
         <v>36</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K64" t="s">
         <v>36</v>
@@ -4268,7 +4265,7 @@
         <v>19</v>
       </c>
       <c r="J65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K65" t="s">
         <v>19</v>
@@ -4376,7 +4373,7 @@
         <v>36</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K68" t="s">
         <v>82</v>
@@ -4412,7 +4409,7 @@
         <v>19</v>
       </c>
       <c r="J69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K69" t="s">
         <v>19</v>
@@ -4556,7 +4553,7 @@
         <v>26</v>
       </c>
       <c r="J73">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K73" t="s">
         <v>26</v>
@@ -4664,7 +4661,7 @@
         <v>19</v>
       </c>
       <c r="J76">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K76" t="s">
         <v>19</v>
@@ -4700,7 +4697,7 @@
         <v>19</v>
       </c>
       <c r="J77">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K77" t="s">
         <v>19</v>
@@ -4736,7 +4733,7 @@
         <v>26</v>
       </c>
       <c r="J78">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K78" t="s">
         <v>26</v>
@@ -4952,7 +4949,7 @@
         <v>36</v>
       </c>
       <c r="J84">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K84" t="s">
         <v>36</v>
@@ -5024,7 +5021,7 @@
         <v>36</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K86" t="s">
         <v>36</v>
@@ -5060,7 +5057,7 @@
         <v>19</v>
       </c>
       <c r="J87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K87" t="s">
         <v>19</v>
@@ -5168,7 +5165,7 @@
         <v>36</v>
       </c>
       <c r="J90">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K90" t="s">
         <v>36</v>
@@ -5204,7 +5201,7 @@
         <v>19</v>
       </c>
       <c r="J91">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K91" t="s">
         <v>19</v>
@@ -5348,7 +5345,7 @@
         <v>26</v>
       </c>
       <c r="J95">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K95" t="s">
         <v>26</v>
@@ -5384,7 +5381,7 @@
         <v>36</v>
       </c>
       <c r="J96">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K96" t="s">
         <v>36</v>
@@ -5420,7 +5417,7 @@
         <v>26</v>
       </c>
       <c r="J97">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K97" t="s">
         <v>26</v>
@@ -5600,7 +5597,7 @@
         <v>19</v>
       </c>
       <c r="J102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K102" t="s">
         <v>19</v>
@@ -5636,7 +5633,7 @@
         <v>36</v>
       </c>
       <c r="J103">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K103" t="s">
         <v>36</v>
@@ -5672,7 +5669,7 @@
         <v>36</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K104" t="s">
         <v>36</v>
@@ -5708,7 +5705,7 @@
         <v>19</v>
       </c>
       <c r="J105">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K105" t="s">
         <v>19</v>
@@ -5780,7 +5777,7 @@
         <v>19</v>
       </c>
       <c r="J107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K107" t="s">
         <v>19</v>
@@ -5888,7 +5885,7 @@
         <v>36</v>
       </c>
       <c r="J110">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K110" t="s">
         <v>36</v>
@@ -5924,7 +5921,7 @@
         <v>19</v>
       </c>
       <c r="J111">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K111" t="s">
         <v>19</v>
@@ -6032,7 +6029,7 @@
         <v>36</v>
       </c>
       <c r="J114">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K114" t="s">
         <v>36</v>
@@ -6068,7 +6065,7 @@
         <v>19</v>
       </c>
       <c r="J115">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K115" t="s">
         <v>19</v>
@@ -6140,7 +6137,7 @@
         <v>19</v>
       </c>
       <c r="J117">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K117" t="s">
         <v>19</v>
@@ -6176,7 +6173,7 @@
         <v>19</v>
       </c>
       <c r="J118">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K118" t="s">
         <v>19</v>
@@ -6248,7 +6245,7 @@
         <v>36</v>
       </c>
       <c r="J120">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K120" t="s">
         <v>36</v>
@@ -6320,7 +6317,7 @@
         <v>36</v>
       </c>
       <c r="J122">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K122" t="s">
         <v>36</v>
@@ -6392,7 +6389,7 @@
         <v>19</v>
       </c>
       <c r="J124">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K124" t="s">
         <v>19</v>
@@ -6464,7 +6461,7 @@
         <v>19</v>
       </c>
       <c r="J126">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K126" t="s">
         <v>19</v>
@@ -6644,7 +6641,7 @@
         <v>19</v>
       </c>
       <c r="J131">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K131" t="s">
         <v>19</v>
@@ -6680,7 +6677,7 @@
         <v>19</v>
       </c>
       <c r="J132">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K132" t="s">
         <v>19</v>
@@ -6716,7 +6713,7 @@
         <v>36</v>
       </c>
       <c r="J133">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K133" t="s">
         <v>36</v>
@@ -6788,7 +6785,7 @@
         <v>36</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K135" t="s">
         <v>36</v>
@@ -6860,7 +6857,7 @@
         <v>19</v>
       </c>
       <c r="J137">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K137" t="s">
         <v>19</v>
@@ -6896,7 +6893,7 @@
         <v>19</v>
       </c>
       <c r="J138">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K138" t="s">
         <v>19</v>
@@ -6932,7 +6929,7 @@
         <v>36</v>
       </c>
       <c r="J139">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K139" t="s">
         <v>36</v>
@@ -7004,7 +7001,7 @@
         <v>36</v>
       </c>
       <c r="J141">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K141" t="s">
         <v>36</v>
@@ -7076,7 +7073,7 @@
         <v>19</v>
       </c>
       <c r="J143">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K143" t="s">
         <v>19</v>
@@ -7112,7 +7109,7 @@
         <v>19</v>
       </c>
       <c r="J144">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K144" t="s">
         <v>19</v>
@@ -7148,7 +7145,7 @@
         <v>21</v>
       </c>
       <c r="J145">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K145" t="s">
         <v>21</v>
@@ -7184,7 +7181,7 @@
         <v>21</v>
       </c>
       <c r="J146">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K146" t="s">
         <v>21</v>
@@ -7256,7 +7253,7 @@
         <v>19</v>
       </c>
       <c r="J148">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K148" t="s">
         <v>19</v>
@@ -7328,7 +7325,7 @@
         <v>26</v>
       </c>
       <c r="J150">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K150" t="s">
         <v>26</v>
@@ -11777,7 +11774,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B246"/>
+  <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -12636,12 +12633,12 @@
         <v>348</v>
       </c>
       <c r="B107" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B108" t="s">
         <v>312</v>
@@ -12649,7 +12646,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B109" t="s">
         <v>312</v>
@@ -12657,7 +12654,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B110" t="s">
         <v>312</v>
@@ -12665,7 +12662,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B111" t="s">
         <v>312</v>
@@ -12673,7 +12670,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B112" t="s">
         <v>312</v>
@@ -12681,7 +12678,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B113" t="s">
         <v>312</v>
@@ -12689,7 +12686,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B114" t="s">
         <v>312</v>
@@ -12697,7 +12694,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B115" t="s">
         <v>312</v>
@@ -12705,7 +12702,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B116" t="s">
         <v>312</v>
@@ -12713,7 +12710,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B117" t="s">
         <v>312</v>
@@ -12721,7 +12718,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B118" t="s">
         <v>312</v>
@@ -12729,7 +12726,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B119" t="s">
         <v>312</v>
@@ -12737,7 +12734,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B120" t="s">
         <v>312</v>
@@ -12745,7 +12742,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B121" t="s">
         <v>312</v>
@@ -12753,7 +12750,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B122" t="s">
         <v>312</v>
@@ -12761,7 +12758,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B123" t="s">
         <v>312</v>
@@ -12769,7 +12766,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B124" t="s">
         <v>312</v>
@@ -12777,7 +12774,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B125" t="s">
         <v>312</v>
@@ -12785,7 +12782,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B126" t="s">
         <v>312</v>
@@ -12793,7 +12790,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B127" t="s">
         <v>312</v>
@@ -12801,7 +12798,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B128" t="s">
         <v>312</v>
@@ -12809,7 +12806,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B129" t="s">
         <v>312</v>
@@ -12817,7 +12814,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B130" t="s">
         <v>312</v>
@@ -12825,7 +12822,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B131" t="s">
         <v>312</v>
@@ -12833,7 +12830,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B132" t="s">
         <v>312</v>
@@ -12841,7 +12838,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B133" t="s">
         <v>312</v>
@@ -12849,7 +12846,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B134" t="s">
         <v>312</v>
@@ -12857,7 +12854,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B135" t="s">
         <v>312</v>
@@ -12865,7 +12862,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B136" t="s">
         <v>312</v>
@@ -12873,7 +12870,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B137" t="s">
         <v>312</v>
@@ -12881,7 +12878,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B138" t="s">
         <v>312</v>
@@ -12889,7 +12886,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B139" t="s">
         <v>312</v>
@@ -12897,7 +12894,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B140" t="s">
         <v>312</v>
@@ -12905,7 +12902,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B141" t="s">
         <v>312</v>
@@ -12913,7 +12910,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B142" t="s">
         <v>312</v>
@@ -12921,7 +12918,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B143" t="s">
         <v>312</v>
@@ -12929,7 +12926,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B144" t="s">
         <v>312</v>
@@ -12937,7 +12934,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B145" t="s">
         <v>312</v>
@@ -12945,7 +12942,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B146" t="s">
         <v>312</v>
@@ -12953,7 +12950,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B147" t="s">
         <v>312</v>
@@ -12961,7 +12958,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B148" t="s">
         <v>312</v>
@@ -12969,7 +12966,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B149" t="s">
         <v>312</v>
@@ -12977,7 +12974,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B150" t="s">
         <v>312</v>
@@ -12985,7 +12982,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B151" t="s">
         <v>312</v>
@@ -12993,7 +12990,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B152" t="s">
         <v>312</v>
@@ -13001,7 +12998,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B153" t="s">
         <v>312</v>
@@ -13009,10 +13006,10 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
+        <v>395</v>
+      </c>
+      <c r="B154" t="s">
         <v>396</v>
-      </c>
-      <c r="B154" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -13020,223 +13017,223 @@
         <v>397</v>
       </c>
       <c r="B155" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B156" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B157" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B158" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B159" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B160" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B161" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B162" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B163" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B164" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B165" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B166" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B167" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B168" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B169" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B170" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B171" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B172" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B173" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B174" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B175" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B176" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B177" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B178" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B179" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B180" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B181" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
+        <v>424</v>
+      </c>
+      <c r="B182" t="s">
         <v>425</v>
-      </c>
-      <c r="B182" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -13244,7 +13241,7 @@
         <v>426</v>
       </c>
       <c r="B183" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -13252,7 +13249,7 @@
         <v>427</v>
       </c>
       <c r="B184" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -13260,7 +13257,7 @@
         <v>428</v>
       </c>
       <c r="B185" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -13268,487 +13265,79 @@
         <v>429</v>
       </c>
       <c r="B186" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
+        <v>431</v>
+      </c>
+      <c r="B187" t="s">
         <v>430</v>
-      </c>
-      <c r="B187" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B188" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B189" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B190" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B191" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B192" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B193" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B194" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B195" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
-        <v>439</v>
-      </c>
-      <c r="B196" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
-        <v>440</v>
-      </c>
-      <c r="B197" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
-        <v>441</v>
-      </c>
-      <c r="B198" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
-        <v>442</v>
-      </c>
-      <c r="B199" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
-        <v>443</v>
-      </c>
-      <c r="B200" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
-        <v>444</v>
-      </c>
-      <c r="B201" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
-        <v>445</v>
-      </c>
-      <c r="B202" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
-        <v>446</v>
-      </c>
-      <c r="B203" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>447</v>
-      </c>
-      <c r="B204" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
-        <v>33</v>
-      </c>
-      <c r="B205" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
-        <v>38</v>
-      </c>
-      <c r="B206" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
-        <v>448</v>
-      </c>
-      <c r="B207" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
-        <v>449</v>
-      </c>
-      <c r="B208" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
-        <v>450</v>
-      </c>
-      <c r="B209" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
-        <v>451</v>
-      </c>
-      <c r="B210" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
-        <v>452</v>
-      </c>
-      <c r="B211" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
-        <v>453</v>
-      </c>
-      <c r="B212" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
-        <v>454</v>
-      </c>
-      <c r="B213" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
-        <v>455</v>
-      </c>
-      <c r="B214" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
-        <v>456</v>
-      </c>
-      <c r="B215" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
-        <v>457</v>
-      </c>
-      <c r="B216" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
-        <v>458</v>
-      </c>
-      <c r="B217" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
-        <v>459</v>
-      </c>
-      <c r="B218" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
-        <v>460</v>
-      </c>
-      <c r="B219" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
-        <v>461</v>
-      </c>
-      <c r="B220" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
-        <v>462</v>
-      </c>
-      <c r="B221" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
-        <v>463</v>
-      </c>
-      <c r="B222" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
-        <v>464</v>
-      </c>
-      <c r="B223" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
-        <v>465</v>
-      </c>
-      <c r="B224" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
-        <v>466</v>
-      </c>
-      <c r="B225" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
-        <v>467</v>
-      </c>
-      <c r="B226" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
-        <v>468</v>
-      </c>
-      <c r="B227" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
-        <v>469</v>
-      </c>
-      <c r="B228" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
-        <v>470</v>
-      </c>
-      <c r="B229" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
-        <v>471</v>
-      </c>
-      <c r="B230" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
-        <v>472</v>
-      </c>
-      <c r="B231" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
-        <v>473</v>
-      </c>
-      <c r="B232" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" t="s">
-        <v>474</v>
-      </c>
-      <c r="B233" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" t="s">
-        <v>475</v>
-      </c>
-      <c r="B234" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
-        <v>476</v>
-      </c>
-      <c r="B235" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="s">
-        <v>477</v>
-      </c>
-      <c r="B236" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
-        <v>478</v>
-      </c>
-      <c r="B237" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
-        <v>479</v>
-      </c>
-      <c r="B238" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
-        <v>480</v>
-      </c>
-      <c r="B239" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
-        <v>481</v>
-      </c>
-      <c r="B240" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
-        <v>482</v>
-      </c>
-      <c r="B241" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
-        <v>483</v>
-      </c>
-      <c r="B242" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
-        <v>484</v>
-      </c>
-      <c r="B243" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
-        <v>485</v>
-      </c>
-      <c r="B244" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="s">
-        <v>486</v>
-      </c>
-      <c r="B245" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
-        <v>487</v>
-      </c>
-      <c r="B246" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -13769,7 +13358,7 @@
         <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>488</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
         <v>142</v>
@@ -13777,24 +13366,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="C2" t="s">
-        <v>490</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" t="s">
         <v>425</v>
       </c>
-      <c r="B3" t="s">
-        <v>491</v>
-      </c>
       <c r="C3" t="s">
-        <v>492</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13802,10 +13391,10 @@
         <v>426</v>
       </c>
       <c r="B4" t="s">
-        <v>491</v>
+        <v>425</v>
       </c>
       <c r="C4" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -13813,10 +13402,10 @@
         <v>427</v>
       </c>
       <c r="B5" t="s">
-        <v>491</v>
+        <v>425</v>
       </c>
       <c r="C5" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13824,98 +13413,98 @@
         <v>428</v>
       </c>
       <c r="B6" t="s">
-        <v>491</v>
+        <v>425</v>
       </c>
       <c r="C6" t="s">
-        <v>495</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="C7" t="s">
-        <v>497</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="C8" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B9" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="C9" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="B10" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="C10" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="C11" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="B12" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="C12" t="s">
-        <v>502</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="C13" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B14" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="C14" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13923,10 +13512,10 @@
         <v>426</v>
       </c>
       <c r="B15" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C15" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13934,10 +13523,10 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C16" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13945,117 +13534,117 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C17" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="B18" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C18" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="B19" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C19" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="B20" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C20" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="B21" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C21" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="B22" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C22" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="B23" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C23" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="B24" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C24" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="B25" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C25" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="B26" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C26" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="B27" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C27" t="s">
         <v>76</v>
@@ -14063,10 +13652,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B28" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
@@ -14074,10 +13663,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="B29" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C29" t="s">
         <v>79</v>
@@ -14085,10 +13674,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="B30" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C30" t="s">
         <v>80</v>
@@ -14096,10 +13685,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="B31" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C31" t="s">
         <v>83</v>
@@ -14107,10 +13696,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="B32" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C32" t="s">
         <v>85</v>
@@ -14118,10 +13707,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="B33" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C33" t="s">
         <v>87</v>
@@ -14129,10 +13718,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>491</v>
+      </c>
+      <c r="B34" t="s">
         <v>464</v>
-      </c>
-      <c r="B34" t="s">
-        <v>505</v>
       </c>
       <c r="C34" t="s">
         <v>88</v>
@@ -14140,10 +13729,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="B35" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C35" t="s">
         <v>91</v>
@@ -14151,10 +13740,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="B36" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C36" t="s">
         <v>92</v>
@@ -14162,10 +13751,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="B37" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C37" t="s">
         <v>93</v>
@@ -14173,10 +13762,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="B38" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C38" t="s">
         <v>96</v>
@@ -14184,10 +13773,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="B39" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C39" t="s">
         <v>99</v>
@@ -14195,10 +13784,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="B40" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C40" t="s">
         <v>100</v>
@@ -14206,10 +13795,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="B41" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C41" t="s">
         <v>100</v>
@@ -14217,10 +13806,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="B42" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C42" t="s">
         <v>101</v>
@@ -14228,10 +13817,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="B43" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C43" t="s">
         <v>102</v>
@@ -14239,10 +13828,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="B44" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C44" t="s">
         <v>103</v>
@@ -14250,10 +13839,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="B45" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C45" t="s">
         <v>104</v>
@@ -14261,10 +13850,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="B46" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C46" t="s">
         <v>106</v>
@@ -14272,10 +13861,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="B47" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C47" t="s">
         <v>108</v>
@@ -14283,10 +13872,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="B48" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C48" t="s">
         <v>109</v>
@@ -14294,10 +13883,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="B49" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C49" t="s">
         <v>113</v>
@@ -14305,10 +13894,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="B50" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C50" t="s">
         <v>114</v>
@@ -14316,10 +13905,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="B51" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C51" t="s">
         <v>116</v>
@@ -14327,10 +13916,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="B52" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C52" t="s">
         <v>117</v>
@@ -14338,10 +13927,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="B53" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C53" t="s">
         <v>119</v>
@@ -14349,10 +13938,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="B54" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C54" t="s">
         <v>120</v>
@@ -14360,10 +13949,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="B55" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C55" t="s">
         <v>123</v>
@@ -14371,10 +13960,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="B56" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C56" t="s">
         <v>123</v>
@@ -14382,10 +13971,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="B57" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C57" t="s">
         <v>124</v>
@@ -14393,10 +13982,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="B58" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C58" t="s">
         <v>129</v>

--- a/examples/SBB/model_parsing_diagnostics.SBB.xlsx
+++ b/examples/SBB/model_parsing_diagnostics.SBB.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="531">
   <si>
     <t>label</t>
   </si>
@@ -404,21 +404,6 @@
     <t>RASi_pre</t>
   </si>
   <si>
-    <t>RMoS4_pre</t>
-  </si>
-  <si>
-    <t>MoS4</t>
-  </si>
-  <si>
-    <t>Mo,MoS4{2-}/MoS4_aq</t>
-  </si>
-  <si>
-    <t>Mo</t>
-  </si>
-  <si>
-    <t>SMo</t>
-  </si>
-  <si>
     <t>RCFA_pre</t>
   </si>
   <si>
@@ -455,6 +440,36 @@
     <t>-0.39</t>
   </si>
   <si>
+    <t>RMolS4_pre</t>
+  </si>
+  <si>
+    <t>MolS4</t>
+  </si>
+  <si>
+    <t>Mol,MolS4{2-}/MolS4_aq</t>
+  </si>
+  <si>
+    <t>Mol</t>
+  </si>
+  <si>
+    <t>SMol</t>
+  </si>
+  <si>
+    <t>RMohS4_pre</t>
+  </si>
+  <si>
+    <t>MohS4</t>
+  </si>
+  <si>
+    <t>Moh,MohS4{2-}/MohS4_aq</t>
+  </si>
+  <si>
+    <t>Moh</t>
+  </si>
+  <si>
+    <t>SMoh</t>
+  </si>
+  <si>
     <t>species</t>
   </si>
   <si>
@@ -740,12 +755,15 @@
     <t>H4SiO4,BSi</t>
   </si>
   <si>
-    <t>TH2S,H,Mo</t>
-  </si>
-  <si>
     <t>TH3PO4,H,THF,TCO2,Ca</t>
   </si>
   <si>
+    <t>TH2S,H,Mol</t>
+  </si>
+  <si>
+    <t>TH2S,H,Moh</t>
+  </si>
+  <si>
     <t>parameter</t>
   </si>
   <si>
@@ -785,7 +803,10 @@
     <t>BSiID</t>
   </si>
   <si>
-    <t>SMoID</t>
+    <t>SMolID</t>
+  </si>
+  <si>
+    <t>SMohID</t>
   </si>
   <si>
     <t>TMnID</t>
@@ -812,7 +833,10 @@
     <t>CaID</t>
   </si>
   <si>
-    <t>MoID</t>
+    <t>MolID</t>
+  </si>
+  <si>
+    <t>MohID</t>
   </si>
   <si>
     <t>TH3PO4ID</t>
@@ -872,7 +896,10 @@
     <t>AmBSi</t>
   </si>
   <si>
-    <t>AmSMo</t>
+    <t>AmSMol</t>
+  </si>
+  <si>
+    <t>AmSMoh</t>
   </si>
   <si>
     <t>AmO2</t>
@@ -890,7 +917,10 @@
     <t>AmCa</t>
   </si>
   <si>
-    <t>AmMo</t>
+    <t>AmMol</t>
+  </si>
+  <si>
+    <t>AmMoh</t>
   </si>
   <si>
     <t>AmH4SiO4</t>
@@ -1028,10 +1058,16 @@
     <t>BcCmBSi</t>
   </si>
   <si>
-    <t>BcAmSMo</t>
-  </si>
-  <si>
-    <t>BcCmSMo</t>
+    <t>BcAmSMol</t>
+  </si>
+  <si>
+    <t>BcCmSMol</t>
+  </si>
+  <si>
+    <t>BcAmSMoh</t>
+  </si>
+  <si>
+    <t>BcCmSMoh</t>
   </si>
   <si>
     <t>BcAmO2</t>
@@ -1064,10 +1100,16 @@
     <t>BcCmCa</t>
   </si>
   <si>
-    <t>BcAmMo</t>
-  </si>
-  <si>
-    <t>BcCmMo</t>
+    <t>BcAmMol</t>
+  </si>
+  <si>
+    <t>BcCmMol</t>
+  </si>
+  <si>
+    <t>BcAmMoh</t>
+  </si>
+  <si>
+    <t>BcCmMoh</t>
   </si>
   <si>
     <t>BcAmH4SiO4</t>
@@ -1238,7 +1280,10 @@
     <t>CaBW</t>
   </si>
   <si>
-    <t>MoBW</t>
+    <t>MolBW</t>
+  </si>
+  <si>
+    <t>MohBW</t>
   </si>
   <si>
     <t>H4SiO4BW</t>
@@ -1439,7 +1484,7 @@
     <t>pwtods</t>
   </si>
   <si>
-    <t>S_MnO2,S_FeOOH,S_FeS,S_CaCO3,S_MnCO3,S_FeCO3,S_SMo</t>
+    <t>S_MnO2,S_FeOOH,S_FeS,S_CaCO3,S_MnCO3,S_FeCO3,S_SMol,S_SMoh</t>
   </si>
   <si>
     <t>KO2</t>
@@ -1571,10 +1616,13 @@
     <t>kASipre</t>
   </si>
   <si>
-    <t>kMoS4_pre</t>
-  </si>
-  <si>
     <t>kCFA_pre</t>
+  </si>
+  <si>
+    <t>kMolS4_pre</t>
+  </si>
+  <si>
+    <t>kMohS4_pre</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:L153"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2033,7 +2081,7 @@
         <v>21</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -2069,7 +2117,7 @@
         <v>26</v>
       </c>
       <c r="J4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
@@ -2105,7 +2153,7 @@
         <v>26</v>
       </c>
       <c r="J5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
@@ -2141,7 +2189,7 @@
         <v>36</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
         <v>36</v>
@@ -2177,7 +2225,7 @@
         <v>26</v>
       </c>
       <c r="J7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
@@ -2249,7 +2297,7 @@
         <v>21</v>
       </c>
       <c r="J9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -2285,7 +2333,7 @@
         <v>26</v>
       </c>
       <c r="J10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
@@ -2321,7 +2369,7 @@
         <v>26</v>
       </c>
       <c r="J11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
@@ -2357,7 +2405,7 @@
         <v>36</v>
       </c>
       <c r="J12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
         <v>36</v>
@@ -2393,7 +2441,7 @@
         <v>26</v>
       </c>
       <c r="J13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -2465,7 +2513,7 @@
         <v>21</v>
       </c>
       <c r="J15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
@@ -2501,7 +2549,7 @@
         <v>26</v>
       </c>
       <c r="J16">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>
@@ -2537,7 +2585,7 @@
         <v>26</v>
       </c>
       <c r="J17">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
         <v>26</v>
@@ -2573,7 +2621,7 @@
         <v>36</v>
       </c>
       <c r="J18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K18" t="s">
         <v>36</v>
@@ -2609,7 +2657,7 @@
         <v>26</v>
       </c>
       <c r="J19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
         <v>26</v>
@@ -2645,7 +2693,7 @@
         <v>21</v>
       </c>
       <c r="J20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s">
         <v>21</v>
@@ -2753,7 +2801,7 @@
         <v>26</v>
       </c>
       <c r="J23">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K23" t="s">
         <v>26</v>
@@ -2789,7 +2837,7 @@
         <v>26</v>
       </c>
       <c r="J24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K24" t="s">
         <v>26</v>
@@ -2825,7 +2873,7 @@
         <v>36</v>
       </c>
       <c r="J25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K25" t="s">
         <v>36</v>
@@ -2861,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="J26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
         <v>26</v>
@@ -2897,7 +2945,7 @@
         <v>36</v>
       </c>
       <c r="J27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K27" t="s">
         <v>36</v>
@@ -3005,7 +3053,7 @@
         <v>26</v>
       </c>
       <c r="J30">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K30" t="s">
         <v>26</v>
@@ -3041,7 +3089,7 @@
         <v>26</v>
       </c>
       <c r="J31">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
         <v>26</v>
@@ -3077,7 +3125,7 @@
         <v>36</v>
       </c>
       <c r="J32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K32" t="s">
         <v>36</v>
@@ -3113,7 +3161,7 @@
         <v>26</v>
       </c>
       <c r="J33">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K33" t="s">
         <v>26</v>
@@ -3149,7 +3197,7 @@
         <v>36</v>
       </c>
       <c r="J34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K34" t="s">
         <v>36</v>
@@ -3221,7 +3269,7 @@
         <v>26</v>
       </c>
       <c r="J36">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K36" t="s">
         <v>26</v>
@@ -3257,7 +3305,7 @@
         <v>26</v>
       </c>
       <c r="J37">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K37" t="s">
         <v>26</v>
@@ -3293,7 +3341,7 @@
         <v>26</v>
       </c>
       <c r="J38">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K38" t="s">
         <v>26</v>
@@ -3329,7 +3377,7 @@
         <v>36</v>
       </c>
       <c r="J39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K39" t="s">
         <v>36</v>
@@ -3365,7 +3413,7 @@
         <v>26</v>
       </c>
       <c r="J40">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K40" t="s">
         <v>26</v>
@@ -3401,7 +3449,7 @@
         <v>26</v>
       </c>
       <c r="J41">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K41" t="s">
         <v>26</v>
@@ -3473,7 +3521,7 @@
         <v>26</v>
       </c>
       <c r="J43">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K43" t="s">
         <v>26</v>
@@ -3509,7 +3557,7 @@
         <v>26</v>
       </c>
       <c r="J44">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K44" t="s">
         <v>26</v>
@@ -3545,7 +3593,7 @@
         <v>21</v>
       </c>
       <c r="J45">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K45" t="s">
         <v>21</v>
@@ -3581,7 +3629,7 @@
         <v>36</v>
       </c>
       <c r="J46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K46" t="s">
         <v>36</v>
@@ -3617,7 +3665,7 @@
         <v>26</v>
       </c>
       <c r="J47">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
         <v>26</v>
@@ -3653,7 +3701,7 @@
         <v>21</v>
       </c>
       <c r="J48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K48" t="s">
         <v>21</v>
@@ -3689,7 +3737,7 @@
         <v>21</v>
       </c>
       <c r="J49">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K49" t="s">
         <v>21</v>
@@ -3725,7 +3773,7 @@
         <v>21</v>
       </c>
       <c r="J50">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K50" t="s">
         <v>21</v>
@@ -3761,7 +3809,7 @@
         <v>21</v>
       </c>
       <c r="J51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K51" t="s">
         <v>21</v>
@@ -3797,7 +3845,7 @@
         <v>36</v>
       </c>
       <c r="J52">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K52" t="s">
         <v>36</v>
@@ -3833,7 +3881,7 @@
         <v>21</v>
       </c>
       <c r="J53">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s">
         <v>21</v>
@@ -3869,7 +3917,7 @@
         <v>26</v>
       </c>
       <c r="J54">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K54" t="s">
         <v>26</v>
@@ -3905,7 +3953,7 @@
         <v>21</v>
       </c>
       <c r="J55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K55" t="s">
         <v>21</v>
@@ -3941,7 +3989,7 @@
         <v>36</v>
       </c>
       <c r="J56">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K56" t="s">
         <v>36</v>
@@ -4013,7 +4061,7 @@
         <v>26</v>
       </c>
       <c r="J58">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K58" t="s">
         <v>26</v>
@@ -4049,7 +4097,7 @@
         <v>21</v>
       </c>
       <c r="J59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K59" t="s">
         <v>21</v>
@@ -4085,7 +4133,7 @@
         <v>36</v>
       </c>
       <c r="J60">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K60" t="s">
         <v>82</v>
@@ -4157,7 +4205,7 @@
         <v>26</v>
       </c>
       <c r="J62">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K62" t="s">
         <v>26</v>
@@ -4193,7 +4241,7 @@
         <v>21</v>
       </c>
       <c r="J63">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K63" t="s">
         <v>21</v>
@@ -4229,7 +4277,7 @@
         <v>36</v>
       </c>
       <c r="J64">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K64" t="s">
         <v>36</v>
@@ -4301,7 +4349,7 @@
         <v>26</v>
       </c>
       <c r="J66">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K66" t="s">
         <v>26</v>
@@ -4337,7 +4385,7 @@
         <v>21</v>
       </c>
       <c r="J67">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K67" t="s">
         <v>21</v>
@@ -4373,7 +4421,7 @@
         <v>36</v>
       </c>
       <c r="J68">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K68" t="s">
         <v>82</v>
@@ -4445,7 +4493,7 @@
         <v>26</v>
       </c>
       <c r="J70">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K70" t="s">
         <v>26</v>
@@ -4481,7 +4529,7 @@
         <v>21</v>
       </c>
       <c r="J71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K71" t="s">
         <v>21</v>
@@ -4517,7 +4565,7 @@
         <v>26</v>
       </c>
       <c r="J72">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K72" t="s">
         <v>26</v>
@@ -4553,7 +4601,7 @@
         <v>26</v>
       </c>
       <c r="J73">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K73" t="s">
         <v>26</v>
@@ -4589,7 +4637,7 @@
         <v>26</v>
       </c>
       <c r="J74">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K74" t="s">
         <v>26</v>
@@ -4625,7 +4673,7 @@
         <v>21</v>
       </c>
       <c r="J75">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K75" t="s">
         <v>21</v>
@@ -4733,7 +4781,7 @@
         <v>26</v>
       </c>
       <c r="J78">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K78" t="s">
         <v>26</v>
@@ -4769,7 +4817,7 @@
         <v>26</v>
       </c>
       <c r="J79">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K79" t="s">
         <v>26</v>
@@ -4805,7 +4853,7 @@
         <v>21</v>
       </c>
       <c r="J80">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K80" t="s">
         <v>21</v>
@@ -4841,7 +4889,7 @@
         <v>21</v>
       </c>
       <c r="J81">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K81" t="s">
         <v>21</v>
@@ -4877,7 +4925,7 @@
         <v>26</v>
       </c>
       <c r="J82">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K82" t="s">
         <v>26</v>
@@ -4913,7 +4961,7 @@
         <v>21</v>
       </c>
       <c r="J83">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K83" t="s">
         <v>21</v>
@@ -4949,7 +4997,7 @@
         <v>36</v>
       </c>
       <c r="J84">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K84" t="s">
         <v>36</v>
@@ -4985,7 +5033,7 @@
         <v>21</v>
       </c>
       <c r="J85">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K85" t="s">
         <v>21</v>
@@ -5021,7 +5069,7 @@
         <v>36</v>
       </c>
       <c r="J86">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K86" t="s">
         <v>36</v>
@@ -5093,7 +5141,7 @@
         <v>26</v>
       </c>
       <c r="J88">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K88" t="s">
         <v>26</v>
@@ -5129,7 +5177,7 @@
         <v>21</v>
       </c>
       <c r="J89">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K89" t="s">
         <v>21</v>
@@ -5165,7 +5213,7 @@
         <v>36</v>
       </c>
       <c r="J90">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K90" t="s">
         <v>36</v>
@@ -5237,7 +5285,7 @@
         <v>26</v>
       </c>
       <c r="J92">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K92" t="s">
         <v>26</v>
@@ -5273,7 +5321,7 @@
         <v>21</v>
       </c>
       <c r="J93">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K93" t="s">
         <v>21</v>
@@ -5309,7 +5357,7 @@
         <v>26</v>
       </c>
       <c r="J94">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K94" t="s">
         <v>26</v>
@@ -5345,7 +5393,7 @@
         <v>26</v>
       </c>
       <c r="J95">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K95" t="s">
         <v>26</v>
@@ -5381,7 +5429,7 @@
         <v>36</v>
       </c>
       <c r="J96">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K96" t="s">
         <v>36</v>
@@ -5417,7 +5465,7 @@
         <v>26</v>
       </c>
       <c r="J97">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K97" t="s">
         <v>26</v>
@@ -5453,7 +5501,7 @@
         <v>21</v>
       </c>
       <c r="J98">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K98" t="s">
         <v>21</v>
@@ -5489,7 +5537,7 @@
         <v>26</v>
       </c>
       <c r="J99">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K99" t="s">
         <v>26</v>
@@ -5525,7 +5573,7 @@
         <v>26</v>
       </c>
       <c r="J100">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K100" t="s">
         <v>26</v>
@@ -5561,7 +5609,7 @@
         <v>26</v>
       </c>
       <c r="J101">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K101" t="s">
         <v>26</v>
@@ -5633,7 +5681,7 @@
         <v>36</v>
       </c>
       <c r="J103">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K103" t="s">
         <v>36</v>
@@ -5669,7 +5717,7 @@
         <v>36</v>
       </c>
       <c r="J104">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K104" t="s">
         <v>36</v>
@@ -5741,7 +5789,7 @@
         <v>26</v>
       </c>
       <c r="J106">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K106" t="s">
         <v>26</v>
@@ -5813,7 +5861,7 @@
         <v>26</v>
       </c>
       <c r="J108">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K108" t="s">
         <v>26</v>
@@ -5849,7 +5897,7 @@
         <v>26</v>
       </c>
       <c r="J109">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K109" t="s">
         <v>26</v>
@@ -5885,7 +5933,7 @@
         <v>36</v>
       </c>
       <c r="J110">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K110" t="s">
         <v>36</v>
@@ -5957,7 +6005,7 @@
         <v>26</v>
       </c>
       <c r="J112">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K112" t="s">
         <v>26</v>
@@ -5993,7 +6041,7 @@
         <v>26</v>
       </c>
       <c r="J113">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K113" t="s">
         <v>26</v>
@@ -6029,7 +6077,7 @@
         <v>36</v>
       </c>
       <c r="J114">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K114" t="s">
         <v>36</v>
@@ -6101,7 +6149,7 @@
         <v>26</v>
       </c>
       <c r="J116">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K116" t="s">
         <v>26</v>
@@ -6209,7 +6257,7 @@
         <v>26</v>
       </c>
       <c r="J119">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K119" t="s">
         <v>26</v>
@@ -6245,7 +6293,7 @@
         <v>36</v>
       </c>
       <c r="J120">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K120" t="s">
         <v>36</v>
@@ -6281,7 +6329,7 @@
         <v>26</v>
       </c>
       <c r="J121">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K121" t="s">
         <v>26</v>
@@ -6317,7 +6365,7 @@
         <v>36</v>
       </c>
       <c r="J122">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K122" t="s">
         <v>36</v>
@@ -6353,7 +6401,7 @@
         <v>26</v>
       </c>
       <c r="J123">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K123" t="s">
         <v>26</v>
@@ -6425,7 +6473,7 @@
         <v>26</v>
       </c>
       <c r="J125">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K125" t="s">
         <v>26</v>
@@ -6497,7 +6545,7 @@
         <v>21</v>
       </c>
       <c r="J127">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K127" t="s">
         <v>21</v>
@@ -6533,7 +6581,7 @@
         <v>26</v>
       </c>
       <c r="J128">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K128" t="s">
         <v>26</v>
@@ -6569,7 +6617,7 @@
         <v>21</v>
       </c>
       <c r="J129">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K129" t="s">
         <v>21</v>
@@ -6605,7 +6653,7 @@
         <v>26</v>
       </c>
       <c r="J130">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K130" t="s">
         <v>26</v>
@@ -6713,7 +6761,7 @@
         <v>36</v>
       </c>
       <c r="J133">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K133" t="s">
         <v>36</v>
@@ -6749,7 +6797,7 @@
         <v>26</v>
       </c>
       <c r="J134">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K134" t="s">
         <v>26</v>
@@ -6785,7 +6833,7 @@
         <v>36</v>
       </c>
       <c r="J135">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K135" t="s">
         <v>36</v>
@@ -6821,7 +6869,7 @@
         <v>26</v>
       </c>
       <c r="J136">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K136" t="s">
         <v>26</v>
@@ -6929,7 +6977,7 @@
         <v>36</v>
       </c>
       <c r="J139">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K139" t="s">
         <v>36</v>
@@ -6965,7 +7013,7 @@
         <v>26</v>
       </c>
       <c r="J140">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K140" t="s">
         <v>26</v>
@@ -7001,7 +7049,7 @@
         <v>36</v>
       </c>
       <c r="J141">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K141" t="s">
         <v>36</v>
@@ -7037,7 +7085,7 @@
         <v>26</v>
       </c>
       <c r="J142">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K142" t="s">
         <v>26</v>
@@ -7145,7 +7193,7 @@
         <v>21</v>
       </c>
       <c r="J145">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K145" t="s">
         <v>21</v>
@@ -7181,7 +7229,7 @@
         <v>21</v>
       </c>
       <c r="J146">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K146" t="s">
         <v>21</v>
@@ -7195,23 +7243,23 @@
         <v>124</v>
       </c>
       <c r="B147" t="s">
+        <v>111</v>
+      </c>
+      <c r="C147" t="s">
         <v>125</v>
       </c>
-      <c r="C147" t="s">
-        <v>14</v>
-      </c>
       <c r="D147" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E147" t="s">
         <v>16</v>
       </c>
       <c r="F147" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G147"/>
       <c r="H147" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="I147" t="s">
         <v>21</v>
@@ -7231,32 +7279,32 @@
         <v>124</v>
       </c>
       <c r="B148" t="s">
+        <v>126</v>
+      </c>
+      <c r="C148" t="s">
+        <v>127</v>
+      </c>
+      <c r="D148" t="s">
         <v>128</v>
       </c>
-      <c r="C148" t="s">
-        <v>28</v>
-      </c>
-      <c r="D148" t="s">
-        <v>15</v>
-      </c>
       <c r="E148" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F148" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="G148"/>
       <c r="H148" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="I148" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J148">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K148" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L148" t="s">
         <v>21</v>
@@ -7264,35 +7312,35 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
+        <v>124</v>
+      </c>
+      <c r="B149" t="s">
+        <v>112</v>
+      </c>
+      <c r="C149" t="s">
         <v>129</v>
       </c>
-      <c r="B149" t="s">
-        <v>111</v>
-      </c>
-      <c r="C149" t="s">
-        <v>130</v>
-      </c>
       <c r="D149" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E149" t="s">
         <v>16</v>
       </c>
       <c r="F149" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="G149"/>
       <c r="H149" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="I149" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J149">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K149" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L149" t="s">
         <v>21</v>
@@ -7300,32 +7348,32 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B150" t="s">
+        <v>130</v>
+      </c>
+      <c r="C150" t="s">
         <v>131</v>
       </c>
-      <c r="C150" t="s">
-        <v>132</v>
-      </c>
       <c r="D150" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="E150" t="s">
         <v>16</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="G150"/>
       <c r="H150" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="I150" t="s">
         <v>26</v>
       </c>
       <c r="J150">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K150" t="s">
         <v>26</v>
@@ -7336,32 +7384,32 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B151" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C151" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D151" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E151" t="s">
         <v>16</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G151"/>
       <c r="H151" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I151" t="s">
         <v>26</v>
       </c>
       <c r="J151">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K151" t="s">
         <v>26</v>
@@ -7372,35 +7420,35 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B152" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C152" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E152" t="s">
         <v>16</v>
       </c>
       <c r="F152" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G152"/>
       <c r="H152" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I152" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J152">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K152" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L152" t="s">
         <v>21</v>
@@ -7408,37 +7456,109 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B153" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" t="s">
+        <v>29</v>
+      </c>
+      <c r="F153" t="s">
         <v>140</v>
-      </c>
-      <c r="D153" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153" t="s">
-        <v>16</v>
-      </c>
-      <c r="F153" t="s">
-        <v>25</v>
       </c>
       <c r="G153"/>
       <c r="H153" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="I153" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J153">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K153" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L153" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" t="s">
+        <v>141</v>
+      </c>
+      <c r="B154" t="s">
+        <v>142</v>
+      </c>
+      <c r="C154" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" t="s">
+        <v>47</v>
+      </c>
+      <c r="E154" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154" t="s">
+        <v>143</v>
+      </c>
+      <c r="G154"/>
+      <c r="H154" t="s">
+        <v>144</v>
+      </c>
+      <c r="I154" t="s">
+        <v>21</v>
+      </c>
+      <c r="J154">
+        <v>22</v>
+      </c>
+      <c r="K154" t="s">
+        <v>21</v>
+      </c>
+      <c r="L154" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" t="s">
+        <v>141</v>
+      </c>
+      <c r="B155" t="s">
+        <v>145</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" t="s">
+        <v>29</v>
+      </c>
+      <c r="F155" t="s">
+        <v>145</v>
+      </c>
+      <c r="G155"/>
+      <c r="H155" t="s">
+        <v>145</v>
+      </c>
+      <c r="I155" t="s">
+        <v>19</v>
+      </c>
+      <c r="J155">
+        <v>12</v>
+      </c>
+      <c r="K155" t="s">
+        <v>19</v>
+      </c>
+      <c r="L155" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7457,90 +7577,90 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
         <v>152</v>
-      </c>
-      <c r="B9" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -7561,10 +7681,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7572,7 +7692,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -7594,7 +7714,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -7605,10 +7725,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7619,7 +7739,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7630,7 +7750,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7638,10 +7758,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7649,10 +7769,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7660,7 +7780,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -7674,7 +7794,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7682,7 +7802,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -7693,7 +7813,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
@@ -7704,10 +7824,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7718,7 +7838,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7729,7 +7849,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7737,10 +7857,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7748,10 +7868,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7770,7 +7890,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -7781,7 +7901,7 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -7803,7 +7923,7 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -7814,10 +7934,10 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7828,7 +7948,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7839,7 +7959,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7847,10 +7967,10 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7858,10 +7978,10 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7869,7 +7989,7 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C29" t="s">
         <v>43</v>
@@ -7880,10 +8000,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7894,7 +8014,7 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7902,7 +8022,7 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -7913,7 +8033,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -7924,10 +8044,10 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7938,7 +8058,7 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7949,7 +8069,7 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7957,10 +8077,10 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7968,10 +8088,10 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7979,10 +8099,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7993,7 +8113,7 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8001,10 +8121,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8012,7 +8132,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -8034,7 +8154,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -8045,10 +8165,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8059,7 +8179,7 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8070,7 +8190,7 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8078,10 +8198,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8089,10 +8209,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8100,7 +8220,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
         <v>47</v>
@@ -8111,10 +8231,10 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8125,7 +8245,7 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8133,7 +8253,7 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -8144,7 +8264,7 @@
         <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
@@ -8155,10 +8275,10 @@
         <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8169,7 +8289,7 @@
         <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8180,7 +8300,7 @@
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8188,10 +8308,10 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8199,10 +8319,10 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8210,7 +8330,7 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
         <v>48</v>
@@ -8221,7 +8341,7 @@
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
@@ -8243,7 +8363,7 @@
         <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -8254,7 +8374,7 @@
         <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -8276,7 +8396,7 @@
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -8287,10 +8407,10 @@
         <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8301,7 +8421,7 @@
         <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8312,7 +8432,7 @@
         <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8320,10 +8440,10 @@
         <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8331,10 +8451,10 @@
         <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8353,7 +8473,7 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C73" t="s">
         <v>58</v>
@@ -8367,7 +8487,7 @@
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8375,7 +8495,7 @@
         <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -8386,7 +8506,7 @@
         <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
         <v>48</v>
@@ -8397,10 +8517,10 @@
         <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8411,7 +8531,7 @@
         <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -8422,7 +8542,7 @@
         <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -8430,10 +8550,10 @@
         <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -8441,10 +8561,10 @@
         <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -8466,7 +8586,7 @@
         <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -8474,10 +8594,10 @@
         <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -8485,7 +8605,7 @@
         <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -8507,7 +8627,7 @@
         <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -8518,10 +8638,10 @@
         <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -8532,7 +8652,7 @@
         <v>22</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -8543,7 +8663,7 @@
         <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -8551,10 +8671,10 @@
         <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -8562,10 +8682,10 @@
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C92" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -8584,7 +8704,7 @@
         <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C94" t="s">
         <v>58</v>
@@ -8595,7 +8715,7 @@
         <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C95" t="s">
         <v>58</v>
@@ -8620,7 +8740,7 @@
         <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -8628,7 +8748,7 @@
         <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -8639,7 +8759,7 @@
         <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C99" t="s">
         <v>48</v>
@@ -8650,10 +8770,10 @@
         <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -8664,7 +8784,7 @@
         <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -8675,7 +8795,7 @@
         <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -8683,10 +8803,10 @@
         <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C103" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -8694,10 +8814,10 @@
         <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C104" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -8719,7 +8839,7 @@
         <v>22</v>
       </c>
       <c r="C106" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -8727,10 +8847,10 @@
         <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C107" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -8738,7 +8858,7 @@
         <v>64</v>
       </c>
       <c r="B108" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -8760,7 +8880,7 @@
         <v>64</v>
       </c>
       <c r="B110" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -8771,10 +8891,10 @@
         <v>64</v>
       </c>
       <c r="B111" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C111" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -8785,7 +8905,7 @@
         <v>22</v>
       </c>
       <c r="C112" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -8796,7 +8916,7 @@
         <v>22</v>
       </c>
       <c r="C113" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -8804,10 +8924,10 @@
         <v>64</v>
       </c>
       <c r="B114" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C114" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -8815,10 +8935,10 @@
         <v>64</v>
       </c>
       <c r="B115" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C115" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -8826,7 +8946,7 @@
         <v>64</v>
       </c>
       <c r="B116" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C116" t="s">
         <v>66</v>
@@ -8837,7 +8957,7 @@
         <v>64</v>
       </c>
       <c r="B117" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C117" t="s">
         <v>47</v>
@@ -8851,7 +8971,7 @@
         <v>22</v>
       </c>
       <c r="C118" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -8859,7 +8979,7 @@
         <v>64</v>
       </c>
       <c r="B119" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -8870,7 +8990,7 @@
         <v>64</v>
       </c>
       <c r="B120" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C120" t="s">
         <v>48</v>
@@ -8881,10 +9001,10 @@
         <v>64</v>
       </c>
       <c r="B121" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C121" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -8895,7 +9015,7 @@
         <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -8906,7 +9026,7 @@
         <v>22</v>
       </c>
       <c r="C123" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -8914,10 +9034,10 @@
         <v>64</v>
       </c>
       <c r="B124" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C124" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -8925,10 +9045,10 @@
         <v>64</v>
       </c>
       <c r="B125" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C125" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -8947,7 +9067,7 @@
         <v>64</v>
       </c>
       <c r="B127" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C127" t="s">
         <v>71</v>
@@ -8969,7 +9089,7 @@
         <v>64</v>
       </c>
       <c r="B129" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -8980,7 +9100,7 @@
         <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -9002,7 +9122,7 @@
         <v>74</v>
       </c>
       <c r="B132" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -9013,10 +9133,10 @@
         <v>74</v>
       </c>
       <c r="B133" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C133" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9027,7 +9147,7 @@
         <v>22</v>
       </c>
       <c r="C134" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9038,7 +9158,7 @@
         <v>22</v>
       </c>
       <c r="C135" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9046,10 +9166,10 @@
         <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C136" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -9057,10 +9177,10 @@
         <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C137" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -9071,7 +9191,7 @@
         <v>22</v>
       </c>
       <c r="C138" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -9079,7 +9199,7 @@
         <v>74</v>
       </c>
       <c r="B139" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C139" t="s">
         <v>71</v>
@@ -9090,7 +9210,7 @@
         <v>74</v>
       </c>
       <c r="B140" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -9101,7 +9221,7 @@
         <v>74</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C141" t="s">
         <v>71</v>
@@ -9123,10 +9243,10 @@
         <v>74</v>
       </c>
       <c r="B143" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C143" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -9137,7 +9257,7 @@
         <v>22</v>
       </c>
       <c r="C144" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -9148,7 +9268,7 @@
         <v>22</v>
       </c>
       <c r="C145" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -9156,10 +9276,10 @@
         <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C146" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -9167,10 +9287,10 @@
         <v>74</v>
       </c>
       <c r="B147" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C147" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -9178,7 +9298,7 @@
         <v>76</v>
       </c>
       <c r="B148" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -9189,7 +9309,7 @@
         <v>76</v>
       </c>
       <c r="B149" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -9200,7 +9320,7 @@
         <v>76</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C150" t="s">
         <v>47</v>
@@ -9211,7 +9331,7 @@
         <v>76</v>
       </c>
       <c r="B151" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -9222,10 +9342,10 @@
         <v>76</v>
       </c>
       <c r="B152" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C152" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -9233,10 +9353,10 @@
         <v>77</v>
       </c>
       <c r="B153" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C153" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -9244,7 +9364,7 @@
         <v>77</v>
       </c>
       <c r="B154" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -9266,7 +9386,7 @@
         <v>77</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -9277,7 +9397,7 @@
         <v>77</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C157" t="s">
         <v>48</v>
@@ -9310,7 +9430,7 @@
         <v>77</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -9321,7 +9441,7 @@
         <v>79</v>
       </c>
       <c r="B161" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C161" t="s">
         <v>14</v>
@@ -9354,7 +9474,7 @@
         <v>79</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
@@ -9376,7 +9496,7 @@
         <v>79</v>
       </c>
       <c r="B166" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C166" t="s">
         <v>48</v>
@@ -9398,7 +9518,7 @@
         <v>83</v>
       </c>
       <c r="B168" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C168" t="s">
         <v>66</v>
@@ -9423,7 +9543,7 @@
         <v>22</v>
       </c>
       <c r="C170" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -9431,7 +9551,7 @@
         <v>83</v>
       </c>
       <c r="B171" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C171" t="s">
         <v>78</v>
@@ -9453,7 +9573,7 @@
         <v>83</v>
       </c>
       <c r="B173" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -9464,7 +9584,7 @@
         <v>83</v>
       </c>
       <c r="B174" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -9497,7 +9617,7 @@
         <v>87</v>
       </c>
       <c r="B177" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C177" t="s">
         <v>58</v>
@@ -9519,7 +9639,7 @@
         <v>87</v>
       </c>
       <c r="B179" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C179" t="s">
         <v>14</v>
@@ -9530,7 +9650,7 @@
         <v>87</v>
       </c>
       <c r="B180" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -9541,7 +9661,7 @@
         <v>87</v>
       </c>
       <c r="B181" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C181" t="s">
         <v>61</v>
@@ -9563,10 +9683,10 @@
         <v>88</v>
       </c>
       <c r="B183" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C183" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -9585,7 +9705,7 @@
         <v>88</v>
       </c>
       <c r="B185" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C185" t="s">
         <v>14</v>
@@ -9599,7 +9719,7 @@
         <v>22</v>
       </c>
       <c r="C186" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -9607,7 +9727,7 @@
         <v>88</v>
       </c>
       <c r="B187" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C187" t="s">
         <v>78</v>
@@ -9629,7 +9749,7 @@
         <v>88</v>
       </c>
       <c r="B189" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -9640,7 +9760,7 @@
         <v>88</v>
       </c>
       <c r="B190" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -9662,7 +9782,7 @@
         <v>88</v>
       </c>
       <c r="B192" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -9673,7 +9793,7 @@
         <v>88</v>
       </c>
       <c r="B193" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C193" t="s">
         <v>61</v>
@@ -9695,7 +9815,7 @@
         <v>91</v>
       </c>
       <c r="B195" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C195" t="s">
         <v>58</v>
@@ -9706,7 +9826,7 @@
         <v>91</v>
       </c>
       <c r="B196" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C196" t="s">
         <v>14</v>
@@ -9728,7 +9848,7 @@
         <v>91</v>
       </c>
       <c r="B198" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -9739,7 +9859,7 @@
         <v>91</v>
       </c>
       <c r="B199" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C199" t="s">
         <v>48</v>
@@ -9761,7 +9881,7 @@
         <v>91</v>
       </c>
       <c r="B201" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C201" t="s">
         <v>48</v>
@@ -9772,7 +9892,7 @@
         <v>92</v>
       </c>
       <c r="B202" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C202" t="s">
         <v>14</v>
@@ -9783,7 +9903,7 @@
         <v>92</v>
       </c>
       <c r="B203" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C203" t="s">
         <v>47</v>
@@ -9794,7 +9914,7 @@
         <v>92</v>
       </c>
       <c r="B204" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C204" t="s">
         <v>14</v>
@@ -9816,7 +9936,7 @@
         <v>92</v>
       </c>
       <c r="B206" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C206" t="s">
         <v>48</v>
@@ -9838,7 +9958,7 @@
         <v>92</v>
       </c>
       <c r="B208" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C208" t="s">
         <v>48</v>
@@ -9849,7 +9969,7 @@
         <v>93</v>
       </c>
       <c r="B209" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C209" t="s">
         <v>94</v>
@@ -9860,10 +9980,10 @@
         <v>93</v>
       </c>
       <c r="B210" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C210" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -9885,7 +10005,7 @@
         <v>22</v>
       </c>
       <c r="C212" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -9893,10 +10013,10 @@
         <v>93</v>
       </c>
       <c r="B213" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C213" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -9915,7 +10035,7 @@
         <v>93</v>
       </c>
       <c r="B215" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C215" t="s">
         <v>48</v>
@@ -9926,10 +10046,10 @@
         <v>93</v>
       </c>
       <c r="B216" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C216" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -9948,7 +10068,7 @@
         <v>96</v>
       </c>
       <c r="B218" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C218" t="s">
         <v>97</v>
@@ -9959,10 +10079,10 @@
         <v>96</v>
       </c>
       <c r="B219" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C219" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -9984,7 +10104,7 @@
         <v>22</v>
       </c>
       <c r="C221" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -9992,10 +10112,10 @@
         <v>96</v>
       </c>
       <c r="B222" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C222" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -10014,7 +10134,7 @@
         <v>96</v>
       </c>
       <c r="B224" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -10025,7 +10145,7 @@
         <v>96</v>
       </c>
       <c r="B225" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -10047,10 +10167,10 @@
         <v>96</v>
       </c>
       <c r="B227" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C227" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -10069,7 +10189,7 @@
         <v>99</v>
       </c>
       <c r="B229" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C229" t="s">
         <v>14</v>
@@ -10080,10 +10200,10 @@
         <v>99</v>
       </c>
       <c r="B230" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C230" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -10102,7 +10222,7 @@
         <v>99</v>
       </c>
       <c r="B232" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
@@ -10124,7 +10244,7 @@
         <v>99</v>
       </c>
       <c r="B234" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C234" t="s">
         <v>14</v>
@@ -10135,7 +10255,7 @@
         <v>99</v>
       </c>
       <c r="B235" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -10146,7 +10266,7 @@
         <v>99</v>
       </c>
       <c r="B236" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C236" t="s">
         <v>61</v>
@@ -10157,7 +10277,7 @@
         <v>99</v>
       </c>
       <c r="B237" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -10179,7 +10299,7 @@
         <v>100</v>
       </c>
       <c r="B239" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C239" t="s">
         <v>14</v>
@@ -10190,7 +10310,7 @@
         <v>100</v>
       </c>
       <c r="B240" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C240" t="s">
         <v>58</v>
@@ -10201,7 +10321,7 @@
         <v>100</v>
       </c>
       <c r="B241" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C241" t="s">
         <v>14</v>
@@ -10234,7 +10354,7 @@
         <v>100</v>
       </c>
       <c r="B244" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -10245,7 +10365,7 @@
         <v>100</v>
       </c>
       <c r="B245" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C245" t="s">
         <v>48</v>
@@ -10267,7 +10387,7 @@
         <v>100</v>
       </c>
       <c r="B247" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -10289,7 +10409,7 @@
         <v>100</v>
       </c>
       <c r="B249" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C249" t="s">
         <v>48</v>
@@ -10311,7 +10431,7 @@
         <v>101</v>
       </c>
       <c r="B251" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C251" t="s">
         <v>14</v>
@@ -10344,7 +10464,7 @@
         <v>101</v>
       </c>
       <c r="B254" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C254" t="s">
         <v>14</v>
@@ -10377,7 +10497,7 @@
         <v>101</v>
       </c>
       <c r="B257" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -10388,7 +10508,7 @@
         <v>101</v>
       </c>
       <c r="B258" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -10432,7 +10552,7 @@
         <v>102</v>
       </c>
       <c r="B262" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C262" t="s">
         <v>47</v>
@@ -10454,7 +10574,7 @@
         <v>102</v>
       </c>
       <c r="B264" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
@@ -10487,7 +10607,7 @@
         <v>102</v>
       </c>
       <c r="B267" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -10509,7 +10629,7 @@
         <v>102</v>
       </c>
       <c r="B269" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C269" t="s">
         <v>48</v>
@@ -10531,7 +10651,7 @@
         <v>103</v>
       </c>
       <c r="B271" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C271" t="s">
         <v>47</v>
@@ -10542,7 +10662,7 @@
         <v>103</v>
       </c>
       <c r="B272" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C272" t="s">
         <v>47</v>
@@ -10575,7 +10695,7 @@
         <v>103</v>
       </c>
       <c r="B275" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C275" t="s">
         <v>14</v>
@@ -10608,7 +10728,7 @@
         <v>103</v>
       </c>
       <c r="B278" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -10622,7 +10742,7 @@
         <v>22</v>
       </c>
       <c r="C279" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -10630,7 +10750,7 @@
         <v>103</v>
       </c>
       <c r="B280" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C280" t="s">
         <v>61</v>
@@ -10652,7 +10772,7 @@
         <v>104</v>
       </c>
       <c r="B282" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C282" t="s">
         <v>14</v>
@@ -10674,7 +10794,7 @@
         <v>104</v>
       </c>
       <c r="B284" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
@@ -10696,7 +10816,7 @@
         <v>104</v>
       </c>
       <c r="B286" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C286" t="s">
         <v>48</v>
@@ -10729,7 +10849,7 @@
         <v>106</v>
       </c>
       <c r="B289" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C289" t="s">
         <v>14</v>
@@ -10773,7 +10893,7 @@
         <v>106</v>
       </c>
       <c r="B293" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -10806,7 +10926,7 @@
         <v>108</v>
       </c>
       <c r="B296" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C296" t="s">
         <v>14</v>
@@ -10828,7 +10948,7 @@
         <v>108</v>
       </c>
       <c r="B298" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -10861,7 +10981,7 @@
         <v>109</v>
       </c>
       <c r="B301" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C301" t="s">
         <v>14</v>
@@ -10872,10 +10992,10 @@
         <v>109</v>
       </c>
       <c r="B302" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C302" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -10894,7 +11014,7 @@
         <v>109</v>
       </c>
       <c r="B304" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -10905,10 +11025,10 @@
         <v>109</v>
       </c>
       <c r="B305" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C305" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -10927,7 +11047,7 @@
         <v>113</v>
       </c>
       <c r="B307" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C307" t="s">
         <v>14</v>
@@ -10938,10 +11058,10 @@
         <v>113</v>
       </c>
       <c r="B308" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C308" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -10960,7 +11080,7 @@
         <v>113</v>
       </c>
       <c r="B310" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -10971,10 +11091,10 @@
         <v>113</v>
       </c>
       <c r="B311" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C311" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -10993,7 +11113,7 @@
         <v>114</v>
       </c>
       <c r="B313" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C313" t="s">
         <v>14</v>
@@ -11004,10 +11124,10 @@
         <v>114</v>
       </c>
       <c r="B314" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C314" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -11026,7 +11146,7 @@
         <v>114</v>
       </c>
       <c r="B316" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -11037,10 +11157,10 @@
         <v>114</v>
       </c>
       <c r="B317" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C317" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -11059,7 +11179,7 @@
         <v>116</v>
       </c>
       <c r="B319" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C319" t="s">
         <v>14</v>
@@ -11070,10 +11190,10 @@
         <v>116</v>
       </c>
       <c r="B320" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C320" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -11092,7 +11212,7 @@
         <v>116</v>
       </c>
       <c r="B322" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -11103,10 +11223,10 @@
         <v>116</v>
       </c>
       <c r="B323" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C323" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -11125,7 +11245,7 @@
         <v>117</v>
       </c>
       <c r="B325" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C325" t="s">
         <v>14</v>
@@ -11136,10 +11256,10 @@
         <v>117</v>
       </c>
       <c r="B326" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C326" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -11158,7 +11278,7 @@
         <v>117</v>
       </c>
       <c r="B328" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -11169,10 +11289,10 @@
         <v>117</v>
       </c>
       <c r="B329" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C329" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -11191,7 +11311,7 @@
         <v>119</v>
       </c>
       <c r="B331" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C331" t="s">
         <v>14</v>
@@ -11202,10 +11322,10 @@
         <v>119</v>
       </c>
       <c r="B332" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C332" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -11224,7 +11344,7 @@
         <v>119</v>
       </c>
       <c r="B334" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -11235,10 +11355,10 @@
         <v>119</v>
       </c>
       <c r="B335" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C335" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -11257,7 +11377,7 @@
         <v>123</v>
       </c>
       <c r="B337" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C337" t="s">
         <v>14</v>
@@ -11268,7 +11388,7 @@
         <v>123</v>
       </c>
       <c r="B338" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C338" t="s">
         <v>58</v>
@@ -11279,7 +11399,7 @@
         <v>123</v>
       </c>
       <c r="B339" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -11290,7 +11410,7 @@
         <v>123</v>
       </c>
       <c r="B340" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C340" t="s">
         <v>48</v>
@@ -11312,7 +11432,7 @@
         <v>123</v>
       </c>
       <c r="B342" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C342" t="s">
         <v>48</v>
@@ -11320,222 +11440,222 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B343" t="s">
         <v>111</v>
       </c>
       <c r="C343" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B344" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C344" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B345" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C345" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B346" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C346" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B347" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C347" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B348" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C348" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B349" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C349" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B350" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C350" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B351" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C351" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B352" t="s">
         <v>22</v>
       </c>
       <c r="C352" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B353" t="s">
         <v>111</v>
       </c>
       <c r="C353" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B354" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C354" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B355" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C355" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B356" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C356" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B357" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C357" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B358" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C358" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B359" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C359" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B360" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C360" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B361" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C361" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B362" t="s">
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -11545,7 +11665,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -11556,7 +11676,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11564,7 +11684,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11572,7 +11692,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11580,7 +11700,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11588,7 +11708,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11596,7 +11716,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11604,7 +11724,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11612,7 +11732,7 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11620,7 +11740,7 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11628,7 +11748,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -11636,7 +11756,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11644,7 +11764,7 @@
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11652,7 +11772,7 @@
         <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11660,7 +11780,7 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -11668,7 +11788,7 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -11676,7 +11796,7 @@
         <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11684,7 +11804,7 @@
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11692,7 +11812,7 @@
         <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11700,7 +11820,7 @@
         <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -11708,7 +11828,7 @@
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -11716,7 +11836,7 @@
         <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -11724,7 +11844,7 @@
         <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -11732,7 +11852,7 @@
         <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -11740,31 +11860,47 @@
         <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>237</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -11774,7 +11910,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B195"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -11782,1562 +11918,1634 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" t="s">
         <v>247</v>
-      </c>
-      <c r="B8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B14" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B16" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B20" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B24" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B37" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>284</v>
+      </c>
+      <c r="B38" t="s">
         <v>278</v>
-      </c>
-      <c r="B38" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B39" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B41" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B43" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B45" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B49" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B52" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B53" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B54" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B55" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B56" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B57" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B58" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B59" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B60" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B62" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B63" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B64" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B66" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B67" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B68" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B69" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B70" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B71" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B72" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B73" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B74" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B75" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B76" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B77" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B78" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B79" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B80" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
+        <v>328</v>
+      </c>
+      <c r="B81" t="s">
         <v>322</v>
-      </c>
-      <c r="B81" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B82" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B83" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B84" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B85" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B87" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B88" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B89" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B90" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B91" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B92" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B93" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B94" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B95" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B96" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B97" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B98" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B99" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B100" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B101" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B102" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B105" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B106" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B107" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B108" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B109" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B110" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B111" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B112" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B113" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B114" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B115" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B116" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B117" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B118" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B119" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B120" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B121" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B123" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B124" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B125" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B126" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B127" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B128" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B129" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B130" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B131" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B132" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B133" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B134" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B135" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B136" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B137" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B138" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B139" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B140" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B141" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B142" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B143" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B144" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B145" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B146" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B147" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B148" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B149" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B150" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B151" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B152" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B153" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B154" t="s">
-        <v>396</v>
+        <v>322</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B155" t="s">
-        <v>396</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B156" t="s">
-        <v>396</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B157" t="s">
-        <v>396</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B158" t="s">
-        <v>396</v>
+        <v>322</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B159" t="s">
-        <v>396</v>
+        <v>322</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B160" t="s">
-        <v>396</v>
+        <v>322</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B161" t="s">
-        <v>396</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B162" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B163" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B164" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B165" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B166" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B167" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
+        <v>416</v>
+      </c>
+      <c r="B168" t="s">
         <v>410</v>
-      </c>
-      <c r="B168" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B169" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B170" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B171" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B172" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B173" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B174" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B175" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B176" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B177" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B178" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B179" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B180" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B181" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B182" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B183" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B184" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B185" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B186" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B187" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B188" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B189" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B190" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B191" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B192" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B193" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B194" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B195" t="s">
-        <v>430</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>446</v>
+      </c>
+      <c r="B196" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>447</v>
+      </c>
+      <c r="B197" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>448</v>
+      </c>
+      <c r="B198" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>449</v>
+      </c>
+      <c r="B199" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>450</v>
+      </c>
+      <c r="B200" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>451</v>
+      </c>
+      <c r="B201" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>452</v>
+      </c>
+      <c r="B202" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>453</v>
+      </c>
+      <c r="B203" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>454</v>
+      </c>
+      <c r="B204" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -13347,7 +13555,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -13355,167 +13563,167 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="B2" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="C2" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C3" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C4" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C5" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C6" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="C7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="C8" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B9" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="C9" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="C10" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="C11" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="B12" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="C12" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="B13" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="C13" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="B14" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="C14" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="B15" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C15" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13523,10 +13731,10 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C16" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13534,117 +13742,117 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C17" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="B18" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C18" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="B19" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C19" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="B20" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C20" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="B21" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C21" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B22" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C22" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B23" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C23" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="B24" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C24" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="B25" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C25" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B26" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C26" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="B27" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C27" t="s">
         <v>76</v>
@@ -13652,10 +13860,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="B28" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
@@ -13663,10 +13871,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="B29" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C29" t="s">
         <v>79</v>
@@ -13674,10 +13882,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="B30" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C30" t="s">
         <v>80</v>
@@ -13685,10 +13893,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="B31" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C31" t="s">
         <v>83</v>
@@ -13696,10 +13904,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="B32" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C32" t="s">
         <v>85</v>
@@ -13707,10 +13915,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B33" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C33" t="s">
         <v>87</v>
@@ -13718,10 +13926,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B34" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C34" t="s">
         <v>88</v>
@@ -13729,10 +13937,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="B35" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C35" t="s">
         <v>91</v>
@@ -13740,10 +13948,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="B36" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C36" t="s">
         <v>92</v>
@@ -13751,10 +13959,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="B37" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C37" t="s">
         <v>93</v>
@@ -13762,10 +13970,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="B38" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C38" t="s">
         <v>96</v>
@@ -13773,10 +13981,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="B39" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C39" t="s">
         <v>99</v>
@@ -13784,10 +13992,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="B40" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C40" t="s">
         <v>100</v>
@@ -13795,10 +14003,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="B41" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C41" t="s">
         <v>100</v>
@@ -13806,10 +14014,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="B42" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C42" t="s">
         <v>101</v>
@@ -13817,10 +14025,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="B43" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C43" t="s">
         <v>102</v>
@@ -13828,10 +14036,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="B44" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C44" t="s">
         <v>103</v>
@@ -13839,10 +14047,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="B45" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C45" t="s">
         <v>104</v>
@@ -13850,10 +14058,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="B46" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C46" t="s">
         <v>106</v>
@@ -13861,10 +14069,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B47" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C47" t="s">
         <v>108</v>
@@ -13872,10 +14080,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B48" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C48" t="s">
         <v>109</v>
@@ -13883,10 +14091,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="B49" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C49" t="s">
         <v>113</v>
@@ -13894,10 +14102,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B50" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C50" t="s">
         <v>114</v>
@@ -13905,10 +14113,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="B51" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C51" t="s">
         <v>116</v>
@@ -13916,10 +14124,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="B52" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C52" t="s">
         <v>117</v>
@@ -13927,10 +14135,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="B53" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C53" t="s">
         <v>119</v>
@@ -13938,10 +14146,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B54" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C54" t="s">
         <v>120</v>
@@ -13949,10 +14157,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B55" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C55" t="s">
         <v>123</v>
@@ -13960,10 +14168,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="B56" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C56" t="s">
         <v>123</v>
@@ -13971,10 +14179,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B57" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C57" t="s">
         <v>124</v>
@@ -13982,13 +14190,24 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="B58" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>530</v>
+      </c>
+      <c r="B59" t="s">
+        <v>479</v>
+      </c>
+      <c r="C59" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/examples/SBB/model_parsing_diagnostics.SBB.xlsx
+++ b/examples/SBB/model_parsing_diagnostics.SBB.xlsx
@@ -47,7 +47,7 @@
     <t>role</t>
   </si>
   <si>
-    <t>species_modelled</t>
+    <t>formula</t>
   </si>
   <si>
     <t>codename</t>
@@ -134,7 +134,7 @@
     <t>rNC</t>
   </si>
   <si>
-    <t>TNH4,NH4_ads,NH4{+}</t>
+    <t>TNH4,NH4{+},NH4_ads,TNH4_ads,TNH4_ads_nsf,TNH4_dis</t>
   </si>
   <si>
     <t>TNH4</t>
@@ -194,7 +194,7 @@
     <t>+2</t>
   </si>
   <si>
-    <t>TMn,Mn{2+},Mn_ads</t>
+    <t>TMn,Mn{2+},Mn_ads,TMn_ads,TMn_ads_nsf,TMn_dis</t>
   </si>
   <si>
     <t>TMn</t>
@@ -218,7 +218,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>TFe,Fe{2+},Fe_ads</t>
+    <t>TFe,Fe{2+}/Fe_aq,FeCl{1+}/FeCl_aq,FeSO4{0}/FeSO4_aq,FeCO3/FeCO3_aq,Fe(CO3)(OH){-}/Fe_CO3_OH_aq,FeHS{+}/FeHS_aq,FeS[1]{0}/FeS_aq,TFe_dis,Fe_ads,TFe_ads,TFe_ads_nsf</t>
   </si>
   <si>
     <t>TFe</t>
@@ -389,6 +389,9 @@
     <t>FeCO3</t>
   </si>
   <si>
+    <t>FeCO3_aq</t>
+  </si>
+  <si>
     <t>RFeCO3_pre</t>
   </si>
   <si>
@@ -446,7 +449,7 @@
     <t>MolS4</t>
   </si>
   <si>
-    <t>Mol,MolS4{2-}/MolS4_aq</t>
+    <t>Mol,MolO4{2-}/MolO4_aq,MolO3S{2-}/MolO3S_aq,MolO2S2{2-}/MolO2S2_aq,MolOS3{2-}/MolOS3_aq,MolS4{2-}/MolS4_aq,Mol_dis</t>
   </si>
   <si>
     <t>Mol</t>
@@ -461,7 +464,7 @@
     <t>MohS4</t>
   </si>
   <si>
-    <t>Moh,MohS4{2-}/MohS4_aq</t>
+    <t>Moh,MohO4{2-}/MohO4_aq,MohO3S{2-}/MohO3S_aq,MohO2S2{2-}/MohO2S2_aq,MohOS3{2-}/MohOS3_aq,MohS4{2-}/MohS4_aq,Moh_dis</t>
   </si>
   <si>
     <t>Moh</t>
@@ -476,12 +479,12 @@
     <t>comment</t>
   </si>
   <si>
+    <t>modelled but not in chemical equation</t>
+  </si>
+  <si>
     <t>Age</t>
   </si>
   <si>
-    <t>modelled but not in chemical equation</t>
-  </si>
-  <si>
     <t>TH3BO3,H3BO3,H4BO4</t>
   </si>
   <si>
@@ -749,9 +752,6 @@
     <t>TCO2,H,TMn,MnCO3</t>
   </si>
   <si>
-    <t>TCO2,H,TFe,FeCO3</t>
-  </si>
-  <si>
     <t>H4SiO4,BSi</t>
   </si>
   <si>
@@ -917,12 +917,6 @@
     <t>AmCa</t>
   </si>
   <si>
-    <t>AmMol</t>
-  </si>
-  <si>
-    <t>AmMoh</t>
-  </si>
-  <si>
     <t>AmH4SiO4</t>
   </si>
   <si>
@@ -977,22 +971,28 @@
     <t>AmF</t>
   </si>
   <si>
-    <t>AmMn</t>
-  </si>
-  <si>
-    <t>AmMn_ads</t>
-  </si>
-  <si>
-    <t>AmFe</t>
-  </si>
-  <si>
-    <t>AmFe_ads</t>
-  </si>
-  <si>
-    <t>AmNH4</t>
-  </si>
-  <si>
-    <t>AmNH4_ads</t>
+    <t>AmTMn_dis</t>
+  </si>
+  <si>
+    <t>AmTMn_ads_nsf</t>
+  </si>
+  <si>
+    <t>AmTFe_dis</t>
+  </si>
+  <si>
+    <t>AmTFe_ads_nsf</t>
+  </si>
+  <si>
+    <t>AmTNH4_dis</t>
+  </si>
+  <si>
+    <t>AmTNH4_ads_nsf</t>
+  </si>
+  <si>
+    <t>AmMol_dis</t>
+  </si>
+  <si>
+    <t>AmMoh_dis</t>
   </si>
   <si>
     <t>BcAmPOC</t>
@@ -1100,18 +1100,6 @@
     <t>BcCmCa</t>
   </si>
   <si>
-    <t>BcAmMol</t>
-  </si>
-  <si>
-    <t>BcCmMol</t>
-  </si>
-  <si>
-    <t>BcAmMoh</t>
-  </si>
-  <si>
-    <t>BcCmMoh</t>
-  </si>
-  <si>
     <t>BcAmH4SiO4</t>
   </si>
   <si>
@@ -1223,40 +1211,52 @@
     <t>BcCmF</t>
   </si>
   <si>
-    <t>BcAmMn</t>
-  </si>
-  <si>
-    <t>BcCmMn</t>
-  </si>
-  <si>
-    <t>BcAmMn_ads</t>
-  </si>
-  <si>
-    <t>BcCmMn_ads</t>
-  </si>
-  <si>
-    <t>BcAmFe</t>
-  </si>
-  <si>
-    <t>BcCmFe</t>
-  </si>
-  <si>
-    <t>BcAmFe_ads</t>
-  </si>
-  <si>
-    <t>BcCmFe_ads</t>
-  </si>
-  <si>
-    <t>BcAmNH4</t>
-  </si>
-  <si>
-    <t>BcCmNH4</t>
-  </si>
-  <si>
-    <t>BcAmNH4_ads</t>
-  </si>
-  <si>
-    <t>BcCmNH4_ads</t>
+    <t>BcAmTMn_dis</t>
+  </si>
+  <si>
+    <t>BcCmTMn_dis</t>
+  </si>
+  <si>
+    <t>BcAmTMn_ads_nsf</t>
+  </si>
+  <si>
+    <t>BcCmTMn_ads_nsf</t>
+  </si>
+  <si>
+    <t>BcAmTFe_dis</t>
+  </si>
+  <si>
+    <t>BcCmTFe_dis</t>
+  </si>
+  <si>
+    <t>BcAmTFe_ads_nsf</t>
+  </si>
+  <si>
+    <t>BcCmTFe_ads_nsf</t>
+  </si>
+  <si>
+    <t>BcAmTNH4_dis</t>
+  </si>
+  <si>
+    <t>BcCmTNH4_dis</t>
+  </si>
+  <si>
+    <t>BcAmTNH4_ads_nsf</t>
+  </si>
+  <si>
+    <t>BcCmTNH4_ads_nsf</t>
+  </si>
+  <si>
+    <t>BcAmMol_dis</t>
+  </si>
+  <si>
+    <t>BcCmMol_dis</t>
+  </si>
+  <si>
+    <t>BcAmMoh_dis</t>
+  </si>
+  <si>
+    <t>BcCmMoh_dis</t>
   </si>
   <si>
     <t>alpha</t>
@@ -1280,12 +1280,6 @@
     <t>CaBW</t>
   </si>
   <si>
-    <t>MolBW</t>
-  </si>
-  <si>
-    <t>MohBW</t>
-  </si>
-  <si>
     <t>H4SiO4BW</t>
   </si>
   <si>
@@ -1340,82 +1334,88 @@
     <t>FBW</t>
   </si>
   <si>
-    <t>Mn0</t>
-  </si>
-  <si>
-    <t>Fe0</t>
-  </si>
-  <si>
-    <t>NH40</t>
+    <t>TMn_dis0</t>
+  </si>
+  <si>
+    <t>TFe_dis0</t>
+  </si>
+  <si>
+    <t>TNH4_dis0</t>
+  </si>
+  <si>
+    <t>Mol_dis0</t>
+  </si>
+  <si>
+    <t>Moh_dis0</t>
+  </si>
+  <si>
+    <t>dstopw</t>
+  </si>
+  <si>
+    <t>adsorption</t>
+  </si>
+  <si>
+    <t>KH3PO4</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>KH2PO4</t>
+  </si>
+  <si>
+    <t>KHPO4</t>
+  </si>
+  <si>
+    <t>KHSO4</t>
+  </si>
+  <si>
+    <t>KH2O</t>
+  </si>
+  <si>
+    <t>KCO2</t>
+  </si>
+  <si>
+    <t>KHCO3</t>
+  </si>
+  <si>
+    <t>KH2S</t>
+  </si>
+  <si>
+    <t>KH3BO3</t>
+  </si>
+  <si>
+    <t>KHF</t>
   </si>
   <si>
     <t>KMn_ads</t>
   </si>
   <si>
-    <t>adsorption</t>
-  </si>
-  <si>
-    <t>dstopw</t>
+    <t>speciation</t>
+  </si>
+  <si>
+    <t>TMn_dis,Mn_ads</t>
+  </si>
+  <si>
+    <t>TMn_dis,TFe_dis,TNH4_dis</t>
   </si>
   <si>
     <t>KFe_ads</t>
   </si>
   <si>
+    <t>TFe_dis,Fe_ads</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>Fe_aq,FeCl_aq,FeSO4_aq,FeCO3_aq,Fe_CO3_OH_aq,FeHS_aq,FeS_aq</t>
+  </si>
+  <si>
     <t>KNH4_ads</t>
   </si>
   <si>
-    <t>KH3PO4</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>KH2PO4</t>
-  </si>
-  <si>
-    <t>KHPO4</t>
-  </si>
-  <si>
-    <t>KHSO4</t>
-  </si>
-  <si>
-    <t>KH2O</t>
-  </si>
-  <si>
-    <t>KCO2</t>
-  </si>
-  <si>
-    <t>KHCO3</t>
-  </si>
-  <si>
-    <t>KH2S</t>
-  </si>
-  <si>
-    <t>KH3BO3</t>
-  </si>
-  <si>
-    <t>KHF</t>
-  </si>
-  <si>
-    <t>Cl</t>
-  </si>
-  <si>
-    <t>speciation</t>
-  </si>
-  <si>
-    <t>Fe_free,FeCl_aq,FeSO4_aq,FeCO3_aq,Fe_CO3_OH_aq,FeHS_aq,FeS_aq</t>
-  </si>
-  <si>
-    <t>Mn,Mn_ads</t>
-  </si>
-  <si>
-    <t>Mn,Fe,NH4</t>
-  </si>
-  <si>
-    <t>Fe,Fe_ads</t>
-  </si>
-  <si>
-    <t>NH4,NH4_ads</t>
+    <t>TNH4_dis,NH4_ads</t>
   </si>
   <si>
     <t>KspFeS</t>
@@ -1484,7 +1484,7 @@
     <t>pwtods</t>
   </si>
   <si>
-    <t>S_MnO2,S_FeOOH,S_FeS,S_CaCO3,S_MnCO3,S_FeCO3,S_SMol,S_SMoh</t>
+    <t>S_MnO2,S_FeOOH,S_FeS,S_CaCO3,S_MnCO3,S_SMol,S_SMoh</t>
   </si>
   <si>
     <t>KO2</t>
@@ -6931,23 +6931,25 @@
         <v>16</v>
       </c>
       <c r="F138" t="s">
-        <v>118</v>
-      </c>
-      <c r="G138"/>
+        <v>62</v>
+      </c>
+      <c r="G138" t="s">
+        <v>119</v>
+      </c>
       <c r="H138" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="I138" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J138">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L138" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6983,7 +6985,7 @@
         <v>36</v>
       </c>
       <c r="L139" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7019,12 +7021,12 @@
         <v>26</v>
       </c>
       <c r="L140" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B141" t="s">
         <v>60</v>
@@ -7060,7 +7062,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B142" t="s">
         <v>112</v>
@@ -7096,7 +7098,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B143" t="s">
         <v>118</v>
@@ -7111,20 +7113,22 @@
         <v>29</v>
       </c>
       <c r="F143" t="s">
-        <v>118</v>
-      </c>
-      <c r="G143"/>
+        <v>62</v>
+      </c>
+      <c r="G143" t="s">
+        <v>119</v>
+      </c>
       <c r="H143" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="I143" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J143">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K143" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L143" t="s">
         <v>21</v>
@@ -7132,10 +7136,10 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B144" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -7147,11 +7151,11 @@
         <v>16</v>
       </c>
       <c r="F144" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G144"/>
       <c r="H144" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I144" t="s">
         <v>19</v>
@@ -7168,10 +7172,10 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B145" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -7183,11 +7187,11 @@
         <v>29</v>
       </c>
       <c r="F145" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G145"/>
       <c r="H145" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I145" t="s">
         <v>21</v>
@@ -7204,10 +7208,10 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" t="s">
         <v>123</v>
-      </c>
-      <c r="B146" t="s">
-        <v>122</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -7219,11 +7223,11 @@
         <v>16</v>
       </c>
       <c r="F146" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G146"/>
       <c r="H146" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I146" t="s">
         <v>21</v>
@@ -7240,13 +7244,13 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B147" t="s">
         <v>111</v>
       </c>
       <c r="C147" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D147" t="s">
         <v>53</v>
@@ -7276,16 +7280,16 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B148" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C148" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D148" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E148" t="s">
         <v>16</v>
@@ -7312,13 +7316,13 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B149" t="s">
         <v>112</v>
       </c>
       <c r="C149" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D149" t="s">
         <v>47</v>
@@ -7348,13 +7352,13 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B150" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C150" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
@@ -7363,11 +7367,11 @@
         <v>16</v>
       </c>
       <c r="F150" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G150"/>
       <c r="H150" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I150" t="s">
         <v>26</v>
@@ -7384,13 +7388,13 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B151" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C151" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D151" t="s">
         <v>14</v>
@@ -7420,10 +7424,10 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -7435,20 +7439,20 @@
         <v>16</v>
       </c>
       <c r="F152" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G152"/>
       <c r="H152" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I152" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J152">
         <v>21</v>
       </c>
       <c r="K152" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L152" t="s">
         <v>21</v>
@@ -7456,10 +7460,10 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B153" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -7471,11 +7475,11 @@
         <v>29</v>
       </c>
       <c r="F153" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G153"/>
       <c r="H153" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I153" t="s">
         <v>19</v>
@@ -7492,10 +7496,10 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -7507,20 +7511,20 @@
         <v>16</v>
       </c>
       <c r="F154" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G154"/>
       <c r="H154" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I154" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J154">
         <v>22</v>
       </c>
       <c r="K154" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L154" t="s">
         <v>21</v>
@@ -7528,10 +7532,10 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B155" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -7543,11 +7547,11 @@
         <v>29</v>
       </c>
       <c r="F155" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G155"/>
       <c r="H155" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I155" t="s">
         <v>19</v>
@@ -7569,7 +7573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -7577,15 +7581,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>149</v>
@@ -7604,15 +7608,15 @@
         <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
         <v>153</v>
-      </c>
-      <c r="B5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7620,7 +7624,7 @@
         <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7628,7 +7632,7 @@
         <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7636,7 +7640,7 @@
         <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7644,7 +7648,7 @@
         <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7652,7 +7656,7 @@
         <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7660,7 +7664,15 @@
         <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -7681,10 +7693,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7692,7 +7704,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -7714,7 +7726,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -7725,10 +7737,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7739,7 +7751,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7750,7 +7762,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7758,10 +7770,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7769,10 +7781,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7780,7 +7792,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -7794,7 +7806,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7802,7 +7814,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -7813,7 +7825,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
@@ -7824,10 +7836,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7838,7 +7850,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7849,7 +7861,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7857,10 +7869,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7868,10 +7880,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7890,7 +7902,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -7901,7 +7913,7 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -7923,7 +7935,7 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -7934,10 +7946,10 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7948,7 +7960,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7959,7 +7971,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7967,10 +7979,10 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7978,10 +7990,10 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7989,7 +8001,7 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
         <v>43</v>
@@ -8000,10 +8012,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8014,7 +8026,7 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8022,7 +8034,7 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -8033,7 +8045,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -8044,10 +8056,10 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8058,7 +8070,7 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8069,7 +8081,7 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8077,10 +8089,10 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8088,10 +8100,10 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8099,10 +8111,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8113,7 +8125,7 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8121,10 +8133,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8132,7 +8144,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -8154,7 +8166,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -8165,10 +8177,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8179,7 +8191,7 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8190,7 +8202,7 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8198,10 +8210,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8209,10 +8221,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8220,7 +8232,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
         <v>47</v>
@@ -8231,10 +8243,10 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8245,7 +8257,7 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8253,7 +8265,7 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -8264,7 +8276,7 @@
         <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
@@ -8275,10 +8287,10 @@
         <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8289,7 +8301,7 @@
         <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8300,7 +8312,7 @@
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8308,10 +8320,10 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8319,10 +8331,10 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8330,7 +8342,7 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s">
         <v>48</v>
@@ -8341,7 +8353,7 @@
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
@@ -8363,7 +8375,7 @@
         <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -8374,7 +8386,7 @@
         <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -8396,7 +8408,7 @@
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -8407,10 +8419,10 @@
         <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8421,7 +8433,7 @@
         <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8432,7 +8444,7 @@
         <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8440,10 +8452,10 @@
         <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8451,10 +8463,10 @@
         <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8473,7 +8485,7 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
         <v>58</v>
@@ -8487,7 +8499,7 @@
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8495,7 +8507,7 @@
         <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -8506,7 +8518,7 @@
         <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
         <v>48</v>
@@ -8517,10 +8529,10 @@
         <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8531,7 +8543,7 @@
         <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -8542,7 +8554,7 @@
         <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -8550,10 +8562,10 @@
         <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -8561,10 +8573,10 @@
         <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -8586,7 +8598,7 @@
         <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -8594,10 +8606,10 @@
         <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -8605,7 +8617,7 @@
         <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -8627,7 +8639,7 @@
         <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -8638,10 +8650,10 @@
         <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C88" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -8652,7 +8664,7 @@
         <v>22</v>
       </c>
       <c r="C89" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -8663,7 +8675,7 @@
         <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -8671,10 +8683,10 @@
         <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C91" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -8682,10 +8694,10 @@
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -8704,7 +8716,7 @@
         <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C94" t="s">
         <v>58</v>
@@ -8715,7 +8727,7 @@
         <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C95" t="s">
         <v>58</v>
@@ -8740,7 +8752,7 @@
         <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -8748,7 +8760,7 @@
         <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -8759,7 +8771,7 @@
         <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C99" t="s">
         <v>48</v>
@@ -8770,10 +8782,10 @@
         <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -8784,7 +8796,7 @@
         <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -8795,7 +8807,7 @@
         <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -8803,10 +8815,10 @@
         <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C103" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -8814,10 +8826,10 @@
         <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C104" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -8839,7 +8851,7 @@
         <v>22</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -8847,10 +8859,10 @@
         <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -8858,7 +8870,7 @@
         <v>64</v>
       </c>
       <c r="B108" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -8880,7 +8892,7 @@
         <v>64</v>
       </c>
       <c r="B110" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -8891,10 +8903,10 @@
         <v>64</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C111" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -8905,7 +8917,7 @@
         <v>22</v>
       </c>
       <c r="C112" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -8916,7 +8928,7 @@
         <v>22</v>
       </c>
       <c r="C113" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -8924,10 +8936,10 @@
         <v>64</v>
       </c>
       <c r="B114" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C114" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -8935,10 +8947,10 @@
         <v>64</v>
       </c>
       <c r="B115" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C115" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -8946,7 +8958,7 @@
         <v>64</v>
       </c>
       <c r="B116" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C116" t="s">
         <v>66</v>
@@ -8957,7 +8969,7 @@
         <v>64</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C117" t="s">
         <v>47</v>
@@ -8971,7 +8983,7 @@
         <v>22</v>
       </c>
       <c r="C118" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -8979,7 +8991,7 @@
         <v>64</v>
       </c>
       <c r="B119" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -8990,7 +9002,7 @@
         <v>64</v>
       </c>
       <c r="B120" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C120" t="s">
         <v>48</v>
@@ -9001,10 +9013,10 @@
         <v>64</v>
       </c>
       <c r="B121" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C121" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -9015,7 +9027,7 @@
         <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -9026,7 +9038,7 @@
         <v>22</v>
       </c>
       <c r="C123" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -9034,10 +9046,10 @@
         <v>64</v>
       </c>
       <c r="B124" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C124" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -9045,10 +9057,10 @@
         <v>64</v>
       </c>
       <c r="B125" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C125" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -9067,7 +9079,7 @@
         <v>64</v>
       </c>
       <c r="B127" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C127" t="s">
         <v>71</v>
@@ -9089,7 +9101,7 @@
         <v>64</v>
       </c>
       <c r="B129" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -9100,7 +9112,7 @@
         <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -9122,7 +9134,7 @@
         <v>74</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -9133,10 +9145,10 @@
         <v>74</v>
       </c>
       <c r="B133" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C133" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9147,7 +9159,7 @@
         <v>22</v>
       </c>
       <c r="C134" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9158,7 +9170,7 @@
         <v>22</v>
       </c>
       <c r="C135" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9166,10 +9178,10 @@
         <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C136" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -9177,10 +9189,10 @@
         <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -9191,7 +9203,7 @@
         <v>22</v>
       </c>
       <c r="C138" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -9199,7 +9211,7 @@
         <v>74</v>
       </c>
       <c r="B139" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
         <v>71</v>
@@ -9210,7 +9222,7 @@
         <v>74</v>
       </c>
       <c r="B140" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -9221,7 +9233,7 @@
         <v>74</v>
       </c>
       <c r="B141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C141" t="s">
         <v>71</v>
@@ -9243,10 +9255,10 @@
         <v>74</v>
       </c>
       <c r="B143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C143" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -9257,7 +9269,7 @@
         <v>22</v>
       </c>
       <c r="C144" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -9268,7 +9280,7 @@
         <v>22</v>
       </c>
       <c r="C145" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -9276,10 +9288,10 @@
         <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C146" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -9287,10 +9299,10 @@
         <v>74</v>
       </c>
       <c r="B147" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C147" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -9298,7 +9310,7 @@
         <v>76</v>
       </c>
       <c r="B148" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -9309,7 +9321,7 @@
         <v>76</v>
       </c>
       <c r="B149" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -9320,7 +9332,7 @@
         <v>76</v>
       </c>
       <c r="B150" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C150" t="s">
         <v>47</v>
@@ -9331,7 +9343,7 @@
         <v>76</v>
       </c>
       <c r="B151" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -9342,10 +9354,10 @@
         <v>76</v>
       </c>
       <c r="B152" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C152" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -9353,10 +9365,10 @@
         <v>77</v>
       </c>
       <c r="B153" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C153" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -9364,7 +9376,7 @@
         <v>77</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -9386,7 +9398,7 @@
         <v>77</v>
       </c>
       <c r="B156" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -9397,7 +9409,7 @@
         <v>77</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C157" t="s">
         <v>48</v>
@@ -9430,7 +9442,7 @@
         <v>77</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -9441,7 +9453,7 @@
         <v>79</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C161" t="s">
         <v>14</v>
@@ -9474,7 +9486,7 @@
         <v>79</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
@@ -9496,7 +9508,7 @@
         <v>79</v>
       </c>
       <c r="B166" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C166" t="s">
         <v>48</v>
@@ -9518,7 +9530,7 @@
         <v>83</v>
       </c>
       <c r="B168" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C168" t="s">
         <v>66</v>
@@ -9543,7 +9555,7 @@
         <v>22</v>
       </c>
       <c r="C170" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -9551,7 +9563,7 @@
         <v>83</v>
       </c>
       <c r="B171" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C171" t="s">
         <v>78</v>
@@ -9573,7 +9585,7 @@
         <v>83</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -9584,7 +9596,7 @@
         <v>83</v>
       </c>
       <c r="B174" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -9617,7 +9629,7 @@
         <v>87</v>
       </c>
       <c r="B177" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C177" t="s">
         <v>58</v>
@@ -9639,7 +9651,7 @@
         <v>87</v>
       </c>
       <c r="B179" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C179" t="s">
         <v>14</v>
@@ -9650,7 +9662,7 @@
         <v>87</v>
       </c>
       <c r="B180" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -9661,7 +9673,7 @@
         <v>87</v>
       </c>
       <c r="B181" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C181" t="s">
         <v>61</v>
@@ -9683,10 +9695,10 @@
         <v>88</v>
       </c>
       <c r="B183" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C183" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -9705,7 +9717,7 @@
         <v>88</v>
       </c>
       <c r="B185" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C185" t="s">
         <v>14</v>
@@ -9719,7 +9731,7 @@
         <v>22</v>
       </c>
       <c r="C186" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -9727,7 +9739,7 @@
         <v>88</v>
       </c>
       <c r="B187" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C187" t="s">
         <v>78</v>
@@ -9749,7 +9761,7 @@
         <v>88</v>
       </c>
       <c r="B189" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -9760,7 +9772,7 @@
         <v>88</v>
       </c>
       <c r="B190" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -9782,7 +9794,7 @@
         <v>88</v>
       </c>
       <c r="B192" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -9793,7 +9805,7 @@
         <v>88</v>
       </c>
       <c r="B193" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C193" t="s">
         <v>61</v>
@@ -9815,7 +9827,7 @@
         <v>91</v>
       </c>
       <c r="B195" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C195" t="s">
         <v>58</v>
@@ -9826,7 +9838,7 @@
         <v>91</v>
       </c>
       <c r="B196" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C196" t="s">
         <v>14</v>
@@ -9848,7 +9860,7 @@
         <v>91</v>
       </c>
       <c r="B198" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -9859,7 +9871,7 @@
         <v>91</v>
       </c>
       <c r="B199" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C199" t="s">
         <v>48</v>
@@ -9881,7 +9893,7 @@
         <v>91</v>
       </c>
       <c r="B201" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C201" t="s">
         <v>48</v>
@@ -9892,7 +9904,7 @@
         <v>92</v>
       </c>
       <c r="B202" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C202" t="s">
         <v>14</v>
@@ -9903,7 +9915,7 @@
         <v>92</v>
       </c>
       <c r="B203" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C203" t="s">
         <v>47</v>
@@ -9914,7 +9926,7 @@
         <v>92</v>
       </c>
       <c r="B204" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C204" t="s">
         <v>14</v>
@@ -9936,7 +9948,7 @@
         <v>92</v>
       </c>
       <c r="B206" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C206" t="s">
         <v>48</v>
@@ -9958,7 +9970,7 @@
         <v>92</v>
       </c>
       <c r="B208" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C208" t="s">
         <v>48</v>
@@ -9969,7 +9981,7 @@
         <v>93</v>
       </c>
       <c r="B209" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C209" t="s">
         <v>94</v>
@@ -9980,10 +9992,10 @@
         <v>93</v>
       </c>
       <c r="B210" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C210" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -10005,7 +10017,7 @@
         <v>22</v>
       </c>
       <c r="C212" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -10013,10 +10025,10 @@
         <v>93</v>
       </c>
       <c r="B213" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C213" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -10035,7 +10047,7 @@
         <v>93</v>
       </c>
       <c r="B215" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C215" t="s">
         <v>48</v>
@@ -10046,10 +10058,10 @@
         <v>93</v>
       </c>
       <c r="B216" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C216" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -10068,7 +10080,7 @@
         <v>96</v>
       </c>
       <c r="B218" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C218" t="s">
         <v>97</v>
@@ -10079,10 +10091,10 @@
         <v>96</v>
       </c>
       <c r="B219" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C219" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -10104,7 +10116,7 @@
         <v>22</v>
       </c>
       <c r="C221" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -10112,10 +10124,10 @@
         <v>96</v>
       </c>
       <c r="B222" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C222" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -10134,7 +10146,7 @@
         <v>96</v>
       </c>
       <c r="B224" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -10145,7 +10157,7 @@
         <v>96</v>
       </c>
       <c r="B225" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -10167,10 +10179,10 @@
         <v>96</v>
       </c>
       <c r="B227" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C227" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -10189,7 +10201,7 @@
         <v>99</v>
       </c>
       <c r="B229" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C229" t="s">
         <v>14</v>
@@ -10200,10 +10212,10 @@
         <v>99</v>
       </c>
       <c r="B230" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C230" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -10222,7 +10234,7 @@
         <v>99</v>
       </c>
       <c r="B232" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
@@ -10244,7 +10256,7 @@
         <v>99</v>
       </c>
       <c r="B234" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C234" t="s">
         <v>14</v>
@@ -10255,7 +10267,7 @@
         <v>99</v>
       </c>
       <c r="B235" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -10266,7 +10278,7 @@
         <v>99</v>
       </c>
       <c r="B236" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C236" t="s">
         <v>61</v>
@@ -10277,7 +10289,7 @@
         <v>99</v>
       </c>
       <c r="B237" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -10299,7 +10311,7 @@
         <v>100</v>
       </c>
       <c r="B239" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C239" t="s">
         <v>14</v>
@@ -10310,7 +10322,7 @@
         <v>100</v>
       </c>
       <c r="B240" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C240" t="s">
         <v>58</v>
@@ -10321,7 +10333,7 @@
         <v>100</v>
       </c>
       <c r="B241" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C241" t="s">
         <v>14</v>
@@ -10354,7 +10366,7 @@
         <v>100</v>
       </c>
       <c r="B244" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -10365,7 +10377,7 @@
         <v>100</v>
       </c>
       <c r="B245" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C245" t="s">
         <v>48</v>
@@ -10387,7 +10399,7 @@
         <v>100</v>
       </c>
       <c r="B247" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -10409,7 +10421,7 @@
         <v>100</v>
       </c>
       <c r="B249" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C249" t="s">
         <v>48</v>
@@ -10431,7 +10443,7 @@
         <v>101</v>
       </c>
       <c r="B251" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C251" t="s">
         <v>14</v>
@@ -10464,7 +10476,7 @@
         <v>101</v>
       </c>
       <c r="B254" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C254" t="s">
         <v>14</v>
@@ -10497,7 +10509,7 @@
         <v>101</v>
       </c>
       <c r="B257" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -10508,7 +10520,7 @@
         <v>101</v>
       </c>
       <c r="B258" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -10552,7 +10564,7 @@
         <v>102</v>
       </c>
       <c r="B262" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C262" t="s">
         <v>47</v>
@@ -10574,7 +10586,7 @@
         <v>102</v>
       </c>
       <c r="B264" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
@@ -10607,7 +10619,7 @@
         <v>102</v>
       </c>
       <c r="B267" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -10629,7 +10641,7 @@
         <v>102</v>
       </c>
       <c r="B269" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C269" t="s">
         <v>48</v>
@@ -10651,7 +10663,7 @@
         <v>103</v>
       </c>
       <c r="B271" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C271" t="s">
         <v>47</v>
@@ -10662,7 +10674,7 @@
         <v>103</v>
       </c>
       <c r="B272" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C272" t="s">
         <v>47</v>
@@ -10695,7 +10707,7 @@
         <v>103</v>
       </c>
       <c r="B275" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C275" t="s">
         <v>14</v>
@@ -10728,7 +10740,7 @@
         <v>103</v>
       </c>
       <c r="B278" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -10742,7 +10754,7 @@
         <v>22</v>
       </c>
       <c r="C279" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -10750,7 +10762,7 @@
         <v>103</v>
       </c>
       <c r="B280" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C280" t="s">
         <v>61</v>
@@ -10772,7 +10784,7 @@
         <v>104</v>
       </c>
       <c r="B282" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C282" t="s">
         <v>14</v>
@@ -10794,7 +10806,7 @@
         <v>104</v>
       </c>
       <c r="B284" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
@@ -10816,7 +10828,7 @@
         <v>104</v>
       </c>
       <c r="B286" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C286" t="s">
         <v>48</v>
@@ -10849,7 +10861,7 @@
         <v>106</v>
       </c>
       <c r="B289" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C289" t="s">
         <v>14</v>
@@ -10893,7 +10905,7 @@
         <v>106</v>
       </c>
       <c r="B293" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -10926,7 +10938,7 @@
         <v>108</v>
       </c>
       <c r="B296" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C296" t="s">
         <v>14</v>
@@ -10948,7 +10960,7 @@
         <v>108</v>
       </c>
       <c r="B298" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -10981,7 +10993,7 @@
         <v>109</v>
       </c>
       <c r="B301" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C301" t="s">
         <v>14</v>
@@ -10992,10 +11004,10 @@
         <v>109</v>
       </c>
       <c r="B302" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C302" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -11014,7 +11026,7 @@
         <v>109</v>
       </c>
       <c r="B304" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -11025,10 +11037,10 @@
         <v>109</v>
       </c>
       <c r="B305" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C305" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -11047,7 +11059,7 @@
         <v>113</v>
       </c>
       <c r="B307" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C307" t="s">
         <v>14</v>
@@ -11058,10 +11070,10 @@
         <v>113</v>
       </c>
       <c r="B308" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C308" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -11080,7 +11092,7 @@
         <v>113</v>
       </c>
       <c r="B310" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -11091,10 +11103,10 @@
         <v>113</v>
       </c>
       <c r="B311" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C311" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -11113,7 +11125,7 @@
         <v>114</v>
       </c>
       <c r="B313" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C313" t="s">
         <v>14</v>
@@ -11124,10 +11136,10 @@
         <v>114</v>
       </c>
       <c r="B314" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C314" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -11146,7 +11158,7 @@
         <v>114</v>
       </c>
       <c r="B316" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -11157,10 +11169,10 @@
         <v>114</v>
       </c>
       <c r="B317" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C317" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -11179,7 +11191,7 @@
         <v>116</v>
       </c>
       <c r="B319" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C319" t="s">
         <v>14</v>
@@ -11190,10 +11202,10 @@
         <v>116</v>
       </c>
       <c r="B320" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C320" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -11212,7 +11224,7 @@
         <v>116</v>
       </c>
       <c r="B322" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -11223,10 +11235,10 @@
         <v>116</v>
       </c>
       <c r="B323" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C323" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -11245,7 +11257,7 @@
         <v>117</v>
       </c>
       <c r="B325" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C325" t="s">
         <v>14</v>
@@ -11256,10 +11268,10 @@
         <v>117</v>
       </c>
       <c r="B326" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C326" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -11278,7 +11290,7 @@
         <v>117</v>
       </c>
       <c r="B328" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -11289,15 +11301,15 @@
         <v>117</v>
       </c>
       <c r="B329" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C329" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B330" t="s">
         <v>60</v>
@@ -11308,10 +11320,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B331" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C331" t="s">
         <v>14</v>
@@ -11319,18 +11331,18 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B332" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C332" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B333" t="s">
         <v>60</v>
@@ -11341,10 +11353,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B334" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -11352,18 +11364,18 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B335" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C335" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B336" t="s">
         <v>22</v>
@@ -11374,10 +11386,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B337" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C337" t="s">
         <v>14</v>
@@ -11385,10 +11397,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B338" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C338" t="s">
         <v>58</v>
@@ -11396,10 +11408,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B339" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -11407,10 +11419,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B340" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C340" t="s">
         <v>48</v>
@@ -11418,7 +11430,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B341" t="s">
         <v>22</v>
@@ -11429,10 +11441,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B342" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C342" t="s">
         <v>48</v>
@@ -11440,222 +11452,222 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B343" t="s">
         <v>111</v>
       </c>
       <c r="C343" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B344" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C344" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B345" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C345" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B346" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C346" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B347" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C347" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B348" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C348" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B349" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C349" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B350" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C350" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B351" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C351" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B352" t="s">
         <v>22</v>
       </c>
       <c r="C352" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B353" t="s">
         <v>111</v>
       </c>
       <c r="C353" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B354" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C354" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B355" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C355" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B356" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C356" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B357" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C357" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B358" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C358" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B359" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C359" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B360" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C360" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B361" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C361" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B362" t="s">
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -11665,7 +11677,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -11676,7 +11688,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11684,7 +11696,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11692,7 +11704,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11700,7 +11712,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11708,7 +11720,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11716,7 +11728,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11724,7 +11736,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11732,7 +11744,7 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11740,7 +11752,7 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11748,7 +11760,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -11756,7 +11768,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11764,7 +11776,7 @@
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11772,7 +11784,7 @@
         <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11780,7 +11792,7 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -11788,7 +11800,7 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -11796,7 +11808,7 @@
         <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11804,7 +11816,7 @@
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11812,7 +11824,7 @@
         <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11820,7 +11832,7 @@
         <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -11828,7 +11840,7 @@
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -11836,20 +11848,20 @@
         <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
         <v>240</v>
@@ -11857,23 +11869,23 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
         <v>242</v>
@@ -11881,25 +11893,17 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11910,7 +11914,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B204"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -13449,31 +13453,31 @@
         <v>441</v>
       </c>
       <c r="B192" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
+        <v>443</v>
+      </c>
+      <c r="B193" t="s">
         <v>442</v>
-      </c>
-      <c r="B193" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B194" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B195" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -13481,7 +13485,7 @@
         <v>446</v>
       </c>
       <c r="B196" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -13489,7 +13493,7 @@
         <v>447</v>
       </c>
       <c r="B197" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -13497,7 +13501,7 @@
         <v>448</v>
       </c>
       <c r="B198" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -13505,7 +13509,7 @@
         <v>449</v>
       </c>
       <c r="B199" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -13513,7 +13517,7 @@
         <v>450</v>
       </c>
       <c r="B200" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -13521,31 +13525,7 @@
         <v>451</v>
       </c>
       <c r="B201" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
-        <v>452</v>
-      </c>
-      <c r="B202" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
-        <v>453</v>
-      </c>
-      <c r="B203" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>454</v>
-      </c>
-      <c r="B204" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -13569,18 +13549,18 @@
         <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13588,40 +13568,40 @@
         <v>439</v>
       </c>
       <c r="B3" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="C3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="C5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="C6" t="s">
         <v>461</v>
@@ -13717,7 +13697,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B15" t="s">
         <v>479</v>
@@ -14141,7 +14121,7 @@
         <v>479</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -14152,7 +14132,7 @@
         <v>479</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -14163,7 +14143,7 @@
         <v>479</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -14174,7 +14154,7 @@
         <v>479</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -14185,7 +14165,7 @@
         <v>479</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -14196,7 +14176,7 @@
         <v>479</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -14207,7 +14187,7 @@
         <v>479</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/examples/SBB/model_parsing_diagnostics.SBB.xlsx
+++ b/examples/SBB/model_parsing_diagnostics.SBB.xlsx
@@ -107,7 +107,7 @@
     <t>+1</t>
   </si>
   <si>
-    <t>H,H,OH</t>
+    <t>H,H{+},OH{-}</t>
   </si>
   <si>
     <t>dissolved_summed_pH</t>
@@ -122,7 +122,7 @@
     <t>product</t>
   </si>
   <si>
-    <t>TCO2,HCO3,CO3,CO2</t>
+    <t>TCO2,HCO3{-},CO3{2-},CO2</t>
   </si>
   <si>
     <t>TCO2</t>
@@ -149,7 +149,7 @@
     <t>rPC</t>
   </si>
   <si>
-    <t>TH3PO4,H3PO4,H2PO4,HPO4,PO4</t>
+    <t>TH3PO4,H3PO4,H2PO4{-},HPO4{2-},PO4{3-}</t>
   </si>
   <si>
     <t>TH3PO4</t>
@@ -233,7 +233,7 @@
     <t>-1/2</t>
   </si>
   <si>
-    <t>THSO4,HSO4,SO4</t>
+    <t>THSO4,HSO4{-},SO4{2-}</t>
   </si>
   <si>
     <t>THSO4</t>
@@ -248,7 +248,7 @@
     <t>1/2</t>
   </si>
   <si>
-    <t>TH2S,H2S,HS</t>
+    <t>TH2S,H2S,HS{-}</t>
   </si>
   <si>
     <t>TH2S</t>
@@ -431,7 +431,7 @@
     <t>-2.48</t>
   </si>
   <si>
-    <t>THF,HF,F</t>
+    <t>THF,HF,F{-}</t>
   </si>
   <si>
     <t>THF</t>
@@ -485,7 +485,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>TH3BO3,H3BO3,H4BO4</t>
+    <t>TH3BO3,H3BO3,H4BO4{-}</t>
   </si>
   <si>
     <t>H2O</t>
